--- a/stranger things.xlsx
+++ b/stranger things.xlsx
@@ -15,42 +15,913 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="299">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. the o.c (acredito)
+2. lcdp
+3. rbd: la familia
+4. grey's anatomy/ got/ gg/ ppll...
+5. desventuras em série
+6. lcdlf
+7. lcdp/ stranger things
+8. lcdp
+9. got e grey's anatomy
+10. el ministerio del tiempo
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>@blairwdrf9 @stranger_things vc ia surtar, certeza</t>
+  </si>
+  <si>
+    <t>um crítico da @folhailustrada disse que o it 2 faz referência(!) a stranger things. era o estímulo que eu precisava pra mandar meu ~currículo pra eles.</t>
+  </si>
+  <si>
+    <t>rt @elevencomunista: quando eu lembro que a season 4 de stranger things provavelmente vai ser a última 
+https://t.co/enukgrg9jh</t>
+  </si>
+  <si>
+    <t>rt @guilhermefon: gosto muito da billie eilish. é uma mistura de desenho do tim burton com eleven do stranger things e esgotou o pavilhão a…</t>
+  </si>
+  <si>
+    <t>até não lançarem minhas séries n sou 100% completa
+@stranger_things 
+@handmaidsonhulu 
+@lacasadepapel 
+...</t>
+  </si>
+  <si>
+    <t>vou tomar sorvetinho que o biel trouxe e assistir stranger things, é o que tem pra quem vai ficar de molho até a perna melhorar.
+tá ruim não 🤔😂</t>
+  </si>
+  <si>
+    <t>rt @moount: vamo joga o dbd stranger things ihaaa meu deus do ceu
+https://t.co/higpv9ysj6 https://t.co/0sgltj2igg</t>
+  </si>
+  <si>
+    <t>rt @aguiarlorran: e eu que fiz uma foto da minha sobrinha na porta e transformei minha sala na série stranger things https://t.co/lzf6hnsd6q</t>
+  </si>
+  <si>
+    <t>resumo rápido de stranger things.
+tem um buraco negro com uns monstro dentro,aí as criança fecham o buraco o governo vai lá e abre. aí eles fecham de novo, o governo vai lá e abre de novo</t>
+  </si>
+  <si>
+    <t>rt @morphsink: depois de stranger things eu nunca mais fui a mesma. toda vez que o meu nariz eu falo que sou a eleven, quando a luz pisca e…</t>
+  </si>
+  <si>
+    <t>vou assistir a segunda temporada de stranger things agora, já vi alguns minutos e já surtei.</t>
+  </si>
+  <si>
+    <t>aqui está uma música para você… stranger things de freedom fighters
+https://t.co/t9vykuqx3j</t>
+  </si>
+  <si>
+    <t>rt @devil_dorito: eu amo ler críticas burras dá pra ver pérolas do tipo "it pega referencias de stranger things" sim stephen king viajou no…</t>
+  </si>
+  <si>
+    <t>na real, concordo. só ver a reação das pessoas com personagens como a sansa stark e a nancy de stranger things, q recebem bastante ódio só por n serem “badasses” desde a primeira aparição. 
+mas no caso da piper eu acho q é pq ela é chata mesmo, perdão, piper ehsushushsh. https://t.co/ewtnxaogk2</t>
+  </si>
+  <si>
+    <t>rt @giordanaaaaa: @ailjuliaa @caiocozta meu dia tá tão ruim vou chamar ele de stranger things😅</t>
+  </si>
+  <si>
+    <t>@wolfhardcoffee escrota????? você gosta de stranger things por mim a gente já se casava</t>
+  </si>
+  <si>
+    <t>rt @mr_boney_: me rendi ao mundo das séries
+stranger things é sensacional.
+bom dia.</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. sense8
+2. stranger things e oitnb
+3. anne with an e
+4. the vampire diaries
+5. black mirror
+6. irmão do jorel
+7. orange is the new black
+8. anne with an e
+9. black mirror 
+10. vis a vis
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>rt @jackdylanboo: depois de stranger things eu nunca mais fui a mesma. toda vez q eu vejo um eggo eu lembro da eleven, sempre q vejo um fli…</t>
+  </si>
+  <si>
+    <t>rt @caroldrnvrs: um dos melhores casais de stranger things se não for já o melhor, stan lumax for clean skin ✨ https://t.co/ruxnqzckja</t>
+  </si>
+  <si>
+    <t>rt @gyrozeppelin08: @josephserraop @rafarager @slinkyyy_ @millgrr foto de stranger things, comparte culos nada mas que ver</t>
+  </si>
+  <si>
+    <t>rt @veado_hater: supostamente vou ver it 2 amanhã e estou com zero hype pq acho que inconscientemente a saturação que eu tenho com stranger…</t>
+  </si>
+  <si>
+    <t>@peixonaut4 @laurinhalero eu criei uma imagem na minha cabeça onde ela é igual a robin de stranger things e agora não tem quem me faça mudar de ideia</t>
+  </si>
+  <si>
+    <t>rt @millesmoralez: essa é a melhor cena de stranger things e nada mais importa https://t.co/lfyycjubkn</t>
+  </si>
+  <si>
+    <t>pensando em assistir stranger things só pra ver esse tal de dacre montgomery</t>
+  </si>
+  <si>
+    <t>achar o steve de stranger things a coisa mais fofa do mundo é um caminho sem volta</t>
+  </si>
+  <si>
+    <t>amo la música de stranger things.</t>
+  </si>
+  <si>
+    <t>vou acabar de ver stranger things 😴</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. todo mundo odeia o chris
+2. friends
+3. nenhuma
+4. la casa de papel
+5. hannibal um pouco
+6. b99
+7. anne with an e
+8. stranger things
+9. everything sucks 
+10. the office amoooo tudo pra mim assistam
+comenta um emoji e mando as perguntas https://t.co/0pqxopqvka</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “acho que prefiro observar as pessoas do que falar com elas.”
+— stranger things</t>
+  </si>
+  <si>
+    <t>finalmente eu irei começar dois seriados que tanto me falavam para assistir e eu não dava uma bola. stranger things e ozark.</t>
+  </si>
+  <si>
+    <t>@nninhavs lídia de bettle juice, acho que ficaria mto legal como a nancy ou a robin  de stranger things.</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. hannah montana
+2. gilmore girls
+3. stranger things
+4. la casa de papel 
+5. the flash 
+6. friends
+7. this is us
+8. the crown 
+9. the oa
+10. assistam the oa pra renovarem  minha série 
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>porra tocou motley crue em stranger things eu to muito feliz tomanocu</t>
+  </si>
+  <si>
+    <t>comecei a ver a terceira temporada de stranger things e puta merda</t>
+  </si>
+  <si>
+    <t>queria esquecer que vi stranger things e rever tudo de novo</t>
+  </si>
+  <si>
+    <t>stranger things está cabronaaaaa cc</t>
+  </si>
+  <si>
+    <t>rt @heystrangert: strangers: 
+stranger things está concorrendo em 4 categorias
+millie concorre em 3 categorias
+e o finn concorre 1 categor…</t>
+  </si>
+  <si>
+    <t>to quase acabando stranger things</t>
+  </si>
+  <si>
+    <t>dropei 
+stranger things
+possessed e 
+ventos de inverno eu so um lishoooo</t>
+  </si>
+  <si>
+    <t>rt @lenao_sd: vcs namorariam cmg? 
+altura: 1,66
+séries favoritas: game of thrones, vikings, stranger things...
+filmes fav: piratas do cari…</t>
+  </si>
+  <si>
+    <t>rt @swnflowerlwt: louis: odeio modinhas stranger things e game of thrones e esses apps que deixam as pessoas velhas odeio abacate ew odeio…</t>
+  </si>
+  <si>
+    <t>minha mãe pulando o ep 2x07 de stranger things... eu te entendo, mãe. pior ep da série toda</t>
+  </si>
+  <si>
+    <t>@carolcosmo1 sim sim, verdade. não gosto de quase nenhuma. só gostei de mindhunter e stranger things, eu acho. 😂😂</t>
+  </si>
+  <si>
+    <t>que deus o que irmão isso é o cenário onde foi gravado stranger things https://t.co/tvu3uebmvg</t>
+  </si>
+  <si>
+    <t>idade: 15
+altura: 1,55
+tamanho do pé: 35
+estado: rj
+série favorita: stranger things 
+música favorita: medication - yungblud 
+comida favorita: lasanha 
+descrição sobre você: burra &amp;amp; chata 
+data de aniversário: 20/02 https://t.co/mmic7kkt5t</t>
+  </si>
+  <si>
+    <t>me rendi ao mundo das séries
+stranger things é sensacional.
+bom dia.</t>
+  </si>
+  <si>
+    <t>rt @fiieveness: depois de stranger things eu nunca mais fui a mesma. toda vez que vejo alguma coisa roxa eu falo que é da millie, quando te…</t>
+  </si>
+  <si>
+    <t>supostamente vou ver it 2 amanhã e estou com zero hype pq acho que inconscientemente a saturação que eu tenho com stranger things bateu no it 1 eu não suporto mais nada que misture terror, nostalgia e grupo de crianças.... e duas horas de filme haja frauda geriátrica pq amo mijar https://t.co/pqk01ib7uk</t>
+  </si>
+  <si>
+    <t>fala tu twitter terminei dark, stranger things e sintonia
+que q é pra ver agora?</t>
+  </si>
+  <si>
+    <t>não sei se eu já contei, mas minha vizinhança é cheia de gatos e de vez em quando tem uns andando pelo telhado da minha casa
+acontece que eu to assistindo stranger things e levo cada cagaço com esses gatos pqp</t>
+  </si>
+  <si>
+    <t>toda vez que alguém fala de stranger things perto de mim eu abro um sorriso tão grande pqp sou muito cadelinha</t>
+  </si>
+  <si>
+    <t>não, amigo, é stranger things que referencia it https://t.co/qrhjbvgyue</t>
+  </si>
+  <si>
+    <t>pareceu mais uma mistura de terror com stranger things</t>
+  </si>
+  <si>
+    <t>@carla_roccha esqueci da melhor vê por favor (stranger things) mt boa</t>
+  </si>
+  <si>
+    <t>@prihssoares_ @ddlwiitness @camillemabreu gato porém fiquei puta com ele em stranger things kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>assistindo stranger things e lembrando me do meu ex ficante q falou que a serie era boa e eu n acreditei nele na altura :') aff afinal ele tinha razão</t>
+  </si>
+  <si>
+    <t>série de ficção científica/fantasia de 2019 #pcas
+• arrow
+• chilling adventures of sabrina
+• shadowhunters
+• stranger things
+• supernatural
+• the 100
+• the flash
+• the umbrella academy</t>
+  </si>
+  <si>
+    <t>atribuí nota 9.5 ao episódio 3x8 - chapter eight: the battle of starcourt de stranger things https://t.co/wcmcp3llde #bancodeseries</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. ouat
+2. castle
+3. castle
+4. gossip girl
+5. nenhuma 
+6. friends 
+7. stranger things
+8. várias
+9. não sei  
+10. castle e absentia 
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>so gostaria de dizer que so nao me desidratei com o fim de stranger things por puro orgulho, mas eu to chorando horrores por dentro</t>
+  </si>
+  <si>
+    <t>• sobre séries • 
+1. skins 
+2. breaking bad
+3. american horror story 
+4. the walking dead 
+5. sense8 
+6. friends
+7. praticamente todas que acompanhei
+8. peaky blinders 
+9.  stranger things 
+10. telefonistas 🥰
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>rt @gabssthings: alô fandom de st⚠
+a millie, o finn e stranger things estão concorrendo em várias categorias no pca, é super fácil votar e…</t>
+  </si>
+  <si>
+    <t>@norranefreitasc eu queria só ir pra ficar com vontade de comprar livros sem poder e tirar foto na parede do stranger things</t>
+  </si>
+  <si>
+    <t>@celsodossi na verdade é stranger things que bebe da fórmula de it 👍🏼</t>
+  </si>
+  <si>
+    <t>nét flix poderia liberar stranger things 4 logo 
+saudades</t>
+  </si>
+  <si>
+    <t>rt @gabssthings: já votaram no finn, na millie e em stranger things? 👀 https://t.co/1j7hdchr3t</t>
+  </si>
+  <si>
+    <t>eu tenho médico logo cedo e to aqui viciadah em stranger things, acabei me rendendo a essa série 🥰</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. supernatural
+2. friends
+3. friends 
+4. lost
+5. lucifer
+6. b99/ friends
+7. não sei kk
+8. stranger things
+9. game of thrones
+10. scream 
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>indo dormir de madrugada só pra ver os gameplay da extensão de stranger things de dbd</t>
+  </si>
+  <si>
+    <t>só hoje eu percebi que a cena da casa de espelhos em stranger things 3 pode ser uma referência a it e eu to decepcionada por não ter percebido antes</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “o mundo real é um saco.” 
+— stranger things</t>
+  </si>
+  <si>
+    <t>ando es pegada con stranger things</t>
+  </si>
+  <si>
+    <t>rt @ericmonteiro_: sdd daquilo q começa com s
+stranger things</t>
+  </si>
+  <si>
+    <t>rt @aliciavieirx: stranger things (o final da 3 temp)
+um amor para recordar
+sempre ao seu lado
+marley e eu https://t.co/2oox4akxi0</t>
+  </si>
+  <si>
+    <t>rt @140_dudu: ás vezes acho que stranger things é real e que todos os monstros são as inseguranças e as pessoas com que tenho que lidar...</t>
+  </si>
+  <si>
+    <t>encontrei uma mina a copia da max de stranger things que toca bateria, a menina é simplesmente maravilhosa de coisa mais foda bicho</t>
+  </si>
+  <si>
+    <t>@blairwdrf9 @stranger_things moreh, só vai</t>
+  </si>
+  <si>
+    <t>eu podendo escolher entre ver a nova temporada de queer eye, de stranger things... resolvo assistir 13 reasons 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>rt @imcitygiri: toda vez que alguém fala de stranger things perto de mim eu abro um sorriso tão grande pqp sou muito cadelinha</t>
+  </si>
+  <si>
+    <t>hj eu sonhei que me mandaram um email falando q eu ia atuar na s4 de stranger things</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “é importante pra mim que se sinta segura.” 
+— stranger things</t>
+  </si>
+  <si>
+    <t>toda foto que eu vejo agora do boris johnson, eu lembro do bruce, o jornalista babaca dessa última temporada de stranger things. esse cara deve estar muito no efeito do mind flayer https://t.co/ix5tzm1mbm</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. liv e maddie conta? se não contar, grey’s
+2. grey’s/friends/gossip girl ns escolher
+3. nenhuma
+4. pll não me desce
+5. 2ª temporada de 13rw
+6. the good place
+7. grey’s
+8. stranger things
+9. brooklyn 99
+10. that 70s show
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>já tamo ao vivo e hoje vamos testar a dlc do stranger things no dead by daylight:
+https://t.co/pfhaf6jyxn https://t.co/hkvnyznmai</t>
+  </si>
+  <si>
+    <t>dlc de stranger things no dbd meu deus oq esse jogo virou</t>
+  </si>
+  <si>
+    <t>e se it e stranger things se passam no mesmo universo e o mike e o richie são irmãos gêmeos perdidos</t>
+  </si>
+  <si>
+    <t>@tarsilafs é impressionante o jeito que algumas séries cagam alguns atores fisicamente, como stranger things teve a capacidade de ocultar a beleza desse muso</t>
+  </si>
+  <si>
+    <t>assisti verão de 84, achei bem bom. estilo stranger things com uma pitada daquele filme do shia, paranóia</t>
+  </si>
+  <si>
+    <t>informações muito inúteis sobre mim
+idade: 16 anos
+altura:1,63
+tamanho do pé: 37
+signo: leão 
+tatuagem: 0
+piercing:0
+cor favorita: preto
+série favorita: stranger things
+e vcs? https://t.co/ufumaxkhic</t>
+  </si>
+  <si>
+    <t>ainda vou assistir stranger things junto com a laryssa</t>
+  </si>
+  <si>
+    <t>rt @harringrovex: adoraria que billy tivesse um arco de redenção melhor, onde ele trabalhasse seus problemas psicológicos, se tornando uma…</t>
+  </si>
+  <si>
+    <t>rt @artsillie: depois de stranger things nunca mais fui a mesma. toda vez que alguém fala de laboratório, eu lembro do hawkins lab. toda ve…</t>
+  </si>
+  <si>
+    <t>é verdade ele morre — primeiro: como tu sabe q to vendo stranger things? segundo: qual a brisa de dar spoiler? kkkk https://t.co/5a8udagay1</t>
+  </si>
+  <si>
+    <t>@jungxxkjj @taeyrran do lado da fila p tirar foto com a parede do stranger things</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1.supernatural 
+2.várias 
+3.the vampire diares, the good place
+4.riverdale
+5.greys
+6.stranger things
+7.supernatural
+8.supernatural
+9.riverdale
+10.supernatural 
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>nem fudendo que tem retardado que shippa o mike e o will em stranger things, tem louco pra tudo</t>
+  </si>
+  <si>
+    <t>rt @strangernatdyer: vocês já votaram em stranger things hoje? e na millie? e no finn? https://t.co/palcinkjoh</t>
+  </si>
+  <si>
+    <t>nada contra grace e frankie, usei de exemplo porque claramente não é um puta hit. 
+os puta hit da netflix atualmente são, sl, black mirror, stranger things, queer eye? black mirror só perde o prestígio a cada ano. os futuros de st e qe são incógnitas pra mim, então fico quieta.</t>
+  </si>
+  <si>
+    <t>stranger things (o final da 3 temp)
+um amor para recordar
+sempre ao seu lado
+marley e eu https://t.co/2oox4akxi0</t>
+  </si>
+  <si>
+    <t>próxima première que tiver de stranger things @daniel_sharman..tu vai e não quero saber..</t>
+  </si>
+  <si>
+    <t>fav e mando 6 perguntas por dm 
+1- l
+2- j
+3- azul💙
+4- stranger things 
+5- p
+6- nao</t>
+  </si>
+  <si>
+    <t>vontade de assistir stranger things de novo</t>
+  </si>
+  <si>
+    <t>quando assisti o último episódio de stranger things. https://t.co/eao8kmhq9x</t>
+  </si>
+  <si>
+    <t>acho que vou assistir stranger things dnv kkkk</t>
+  </si>
+  <si>
+    <t>essa dlc de stranger things no dbd, tem tudo pra ser a melhor dlc. o demogorgon tá lindão</t>
+  </si>
+  <si>
+    <t>minha tia tá com medo de assistir stranger things kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@benozzatiarthur assistindo stranger things e me sentindo uma coisah estranhah</t>
+  </si>
+  <si>
+    <t>parece um ogro por fora, mas choro facilmente com finais emocionantes, stranger things season 3 foi a causa da minha emoção da vez kkk</t>
+  </si>
+  <si>
+    <t>essa terceira temporada de stranger things é maravilhosa me arrependi de não ter assistido antes</t>
+  </si>
+  <si>
+    <t>@netflixpt para quando a 4 temporada de stranger things? 😎😏</t>
+  </si>
+  <si>
+    <t>idade: 22
+altura: 1,75
+tamanho do pé: 44
+estado: sp
+série favorita: stranger things 
+música favorita: duzz - condor
+comida favorita: bife de berinjela
+anime favorito: another
+descrição sobre você: palhaço
+data de aniversário: 06/08 https://t.co/fdpfgnjh5l</t>
+  </si>
+  <si>
+    <t>idade: 14
+altura: 1,58
+tamanho do pé: 37
+estado: df 
+série favorita: stranger things e good girls 
+música favorita: aaaa mt difícil 
+comida favorita: algodão doce 
+descrição sobre você: army e go vegan 
+data de aniversário: 17/10 https://t.co/wr3kumotgt</t>
+  </si>
+  <si>
+    <t>@fairylwtt @stranger_things gente eu quero isso pra ontem</t>
+  </si>
+  <si>
+    <t>sim perdao so to terminando stranger things 3 agr</t>
+  </si>
+  <si>
+    <t>terminei stranger things e não gostei do final da temporada 💔</t>
+  </si>
+  <si>
+    <t>em 3 anos de stranger things os pirraias parece que cresceram 10 anos. eleven cresceu, namorou, ta com teta e os dentes colgate, tudo em 3 anos e eu com 22 não consegui metade disso. esses pirraias de hoje em dia tão mt acelerados</t>
+  </si>
+  <si>
+    <t>já votaram no finn, na millie e em stranger things? 👀 https://t.co/1j7hdchr3t</t>
+  </si>
+  <si>
+    <t>acho que vou ver stranger things de novo cara kkkkkkk</t>
+  </si>
+  <si>
+    <t>stranger things melhor série do mundo, vo chora</t>
+  </si>
+  <si>
+    <t>@netflixbrasil só acertou em 2 coisas na vida : stranger things e lúcifer ta de parabéns</t>
+  </si>
+  <si>
+    <t>séries que já assiste 
+grey's anatomy (n terminei)
+areia movediça
+insatiable
+friends
+baby
+elite
+la casa de papel 
+sex education
+oitnb
+desencanto 
+the rain
+stranger things
+coisa mais linda
+good girls (n terminei)
+as crônicas de shannara
+on my block
+scream 
+teotfw 
+the act https://t.co/o27f8pzgpo</t>
+  </si>
+  <si>
+    <t>em quais categorias stranger things, o finn e a millie estão concorrendo no peoples' choice awards?</t>
+  </si>
+  <si>
+    <t>será que o “it - capítulo 2” dá medo?
+pq o primeiro parecia a galerinha de stranger things numa super aventura da sessão da tarde.</t>
+  </si>
+  <si>
+    <t>rt @marisssera: quando o assunto é ser a melhor série do mundo , stranger things ganha disparado</t>
+  </si>
+  <si>
+    <t>@fairylwtt @stranger_things aonde q eh isso</t>
+  </si>
+  <si>
+    <t>rt @apanheidavida: "amigo é alguém por quem você faria qualquer coisa." — stranger things</t>
+  </si>
+  <si>
+    <t>queria 10 temporadas de stranger things ô série gostosa de assistir</t>
+  </si>
+  <si>
+    <t>olha pros amigos que querem me dar presente e não sabem o que , 
+eu amo canecas 
+eu amo livros 
+amo ursinhos 
+amo quadrinhos 
+cerveja, harry potter, stranger things
+brusinhas
+e amo principalmente presentinhos feitos a mão</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. pll
+2. vis a vis e the 100
+3. nenhuma
+4. tvd 
+5. 13rw 
+6. sex education
+7. stranger things
+8. vis a vis 
+9. greys anatomy
+10. vis a vis 
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>aloooo @netflixbrasil lança a 4 temp de stranger things ai irmão
+paz</t>
+  </si>
+  <si>
+    <t>caramba
+quem colocou o exterminador do futuro na terceira temporada de stranger things??</t>
+  </si>
+  <si>
+    <t>não vou mais usar minha blusa de stranger things pra ela não estragar e eu poder usar na ccxp</t>
+  </si>
+  <si>
+    <t>é o billy de stranger things??? https://t.co/myw2g4wnyo</t>
+  </si>
+  <si>
+    <t>caraio sonhei com stranger things e acordei com medo do dermogorgom kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>stranger things como posso te agradecer? https://t.co/kxduxz9a0n</t>
+  </si>
+  <si>
+    <t>melhor coisa e maratona stranger things inteira denovo</t>
+  </si>
+  <si>
+    <t>o demogorgon de stranger things é real https://t.co/bwaykzwlzn</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. pll
+2. got
+3. gossip girl
+4. 3%
+5. riverdale, suits 
+6. lucifer
+7. greys anatomy 
+8. reign 
+9. titans, stranger things, sabrina, reign 
+10. todas essas menos 3%
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>it e stranger things passando pelos mesmos problemas de fazer flashbacks com crianças que já cresceram.</t>
+  </si>
+  <si>
+    <t>enrolei tanto p ver stranger things e não sofrer, mas n paro de chorar com o fim</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. teen wolf
+2. todas que eu assisti.
+3. stranger things, teen wolf
+4. 13 reasons why
+5. acho que não tem.
+6. b99
+7. grey's anatomy
+8. the o.a
+9. suits 
+10. anne with an e
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. icarly (conta?) 
+2. dark (ja que got acabou)
+3. nenhuma
+4. stranger things (espero conseguir terminar)
+5. 13rw
+6. friends/b99 
+7. n lembro de nenhuma
+8. got
+9. stranger things
+10. got, dark, the oa, elite, sense8... 
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>@ironmwnx @tarsilafs é foda ñ gostar de stranger things, e ñ poder chamar os atores de feios em</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. supernatural
+2. supernatural kk
+3. skam e skins
+4. the vampire diaries
+5. acho que greys anatomy 
+6. good girls 
+7. olhos que condenam conta?
+8. stranger things
+9. scream
+10. skam 
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. dexter
+2. breaking bad
+3. the office
+4. séries médicas em geral pois tenho agonia
+5. the oa
+6. the office
+7. the office
+8. stranger things
+9. better call saul 
+10. better call saul
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>meu objetivo principal de ir na bienal (além de comprar os livros que eu to querendo) é tirar foto naquele cenário de stranger things!</t>
+  </si>
+  <si>
+    <t>essa série stranger things parece ser da hr vou assistir</t>
+  </si>
+  <si>
+    <t>quando vcs vieram aqui em casa ver stranger things e ai vc ficou a madrugada toda pq tava fazendo hora pra buscar sua irmã na festinha de 15 anos dela e a gente teve mts boas conversas (como smp)</t>
+  </si>
+  <si>
+    <t>eu t a curtir de stranger things não pela história pq isto é só tangas 
+mas os putos são uns atores do crl</t>
+  </si>
+  <si>
+    <t>@amandas_s1 stranger things é, mo</t>
+  </si>
+  <si>
+    <t>it dessa geração ficou mt stranger things o que fica a impressão de que eu gosto mas queria um remake de terror igual o de 90 msm</t>
+  </si>
+  <si>
+    <t>comecei a terceira temporada de stranger things</t>
+  </si>
+  <si>
+    <t>eu amo ler críticas burras dá pra ver pérolas do tipo "it pega referencias de stranger things" sim stephen king viajou no tempo veio pra 2016 viu a serie depois voltou pra 1986 e escreveu o livro</t>
+  </si>
+  <si>
+    <t>@santtinin ação tem good girls, stranger things, lúcifer, sense 8</t>
+  </si>
+  <si>
+    <t>so yasmin pra fwzer eu ficar acordada até agora vend stranger things segunda temp</t>
+  </si>
+  <si>
+    <t>fiz minha mãe assistir stranger things, só que agora ela não para mais kkkkkkkkk ta assistindo 5 episodios seguidos</t>
+  </si>
+  <si>
+    <t>tpm: a
+eu: blz vou ver o último ep de stranger things</t>
+  </si>
+  <si>
+    <t>tomar um café e terminar stranger things agr cedo</t>
+  </si>
+  <si>
+    <t>meu dia foi tão chato que vou chamar de stranger things</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. futurama 
+2. heroes e st (o valor sentimental sabe)
+3. the walking dead (sdds quando era fã)
+4. black mirror
+5. kkk dark
+6. south park 😔
+7. stranger things, o season finale
+8. sense8 e lost
+9. dark 
+10. heroes
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. the vampire diaries
+2. no momento euphoria
+3. tentei ver tvd mas parei
+4. twd
+5. 13rw
+6. oitnb
+7. tvd e stranger things
+8. grimm
+9. riverdale e la casa de papel
+10. the end of the fucking world
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>obg stranger things por me destruir</t>
+  </si>
+  <si>
+    <t>rt @elxloser: boa tarde strangers, vamos votar nas categorias que finn, millie e stranger things foram indicados no people's choice awards!…</t>
+  </si>
+  <si>
+    <t>nunca vo entender vcs passando pano pro billy de stranger things sinceramente</t>
   </si>
   <si>
     <t>rt @celsodossi: será que o “it - capítulo 2” dá medo?
 pq o primeiro parecia a galerinha de stranger things numa super aventura da sessão da…</t>
   </si>
   <si>
-    <t>assistindo stranger things de novo, só pra minha mãe ver também!</t>
+    <t>@josephserraop @rafarager @slinkyyy_ @millgrr foto de stranger things, comparte culos nada mas que ver</t>
+  </si>
+  <si>
+    <t>rt @luisafduarte: nao sei se eu choro de rir mais da minha mae falando stranger things ou dela com medo do "monstrão"
+hahahahahahahahahaha…</t>
+  </si>
+  <si>
+    <t>@vitor_britto imagina uma cena da sophia valverde e do noah, de stranger things</t>
+  </si>
+  <si>
+    <t>@indizera eu acho que você deveria emprestar, pois ele deve ser viciado em stranger things.</t>
+  </si>
+  <si>
+    <t>nmrlkkkkkk li uma parada ai da lily allen namorando com um ator aí de stranger things eu tava imaginando q era o galã lorin mas era o cherife velho fiquei x.x</t>
+  </si>
+  <si>
+    <t>preciso de alguem que goste de
+stranger things
+one direction 
+one day at a time 
+harry potter 
+marvel
+qualquer filme da disney  
+pfv deixar currículo</t>
+  </si>
+  <si>
+    <t>nunca pensei que diria isso, mas ultimamente tá melhor assitir uns ep de stranger things do que esses jogos da copa do brasil.</t>
+  </si>
+  <si>
+    <t>@liandreor @fernandes_lalaa lais vc isso comigo em stranger things acredita??</t>
+  </si>
+  <si>
+    <t>tô indo pro último episódio de stranger things i can't believe i did that</t>
+  </si>
+  <si>
+    <t>13 perguntas aleatórias demais para serem respondidas rapidamente:
+1 - hoje
+2 - domingo
+3 - l
+4 - l
+5 - hoje
+6 - suco de maracujá 
+7 - estrogonofe
+8 - ...
+9 - @yuripm19
+10 - sei la kkk
+11 - não sei jkjkkk
+12 - preto
+13 - stranger things 
+curte que eu mando-te</t>
+  </si>
+  <si>
+    <t>toda vez eu falo p minha irma assistir x serie comigo e ela nunca quer, mas ai depois de um tempo ela resolve assistir e eu tenho que ver td de novo com ela, foi assim com
+game of thrones 
+stranger things 
+riverdale 
+lúcifer 
+e agora vis a vis</t>
+  </si>
+  <si>
+    <t>riverdale eh bom, mas nunca vai ultrapassar stranger things https://t.co/atarkwmjwd</t>
+  </si>
+  <si>
+    <t>enfim, ontem foi o dia do 18tao e pa. no fim das contas quis ficar em casa vendo stranger things, sem role e amigos. apenas eu sozinho. e no fim foi sensacional...</t>
+  </si>
+  <si>
+    <t>manooooo, 3 temporada de stranger things foi muitoooooooo fodaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>3temp de stranger things eh mt foda</t>
+  </si>
+  <si>
+    <t>acabei de descobrir q eu sou a cara do mike de stranger things</t>
+  </si>
+  <si>
+    <t>rt @pb_brg: a voz do mike da dublagem de stranger things https://t.co/o3lixromdn</t>
+  </si>
+  <si>
+    <t>@serenogustavo foi expulso do mbl para a nova temporada de stranger things. boa, dustin! https://t.co/ghriuouimc</t>
+  </si>
+  <si>
+    <t>ganhei a camisa com o letreiro de stranger things ajdkakmsmsms aaaaaa</t>
   </si>
   <si>
     <t>• sobre séries •
-1. riverdale
-2. gossip girl
-3. gossip girl
-4. lucifer
-5. greys anatomy
-6. rupaul's
-7. atypical
-8.… https://t.co/fbiuy5egfo</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. icarly kkkk
-2. how i met your mother
-3. nenhuma, não tenho paciência
+1. stranger things
+2. stranger things
+3. lucifer
 4. riverdale
-5. pretty li… https://t.co/o1ddtqodhs</t>
-  </si>
-  <si>
-    <t>@vitor_britto imagina uma cena da sophia valverde e do noah, de stranger things</t>
-  </si>
-  <si>
-    <t>rt @moount: vamo joga o dbd stranger things ihaaa meu deus do ceu
-https://t.co/higpv9ysj6 https://t.co/0sgltj2igg</t>
+5. riverdale
+6. (des)encantados
+7. perdidos no espaço quando o robô(alien) morre
+8. vikings 
+9. shadow hunters
+10. sex education</t>
   </si>
   <si>
     <t>sobre séries
@@ -62,267 +933,28 @@
 6. friends
 7. stranger things
 8. orphan black
-9… https://t.co/serpsbotpc</t>
-  </si>
-  <si>
-    <t>@drogadanny amiga???? é de stranger things
-billy</t>
-  </si>
-  <si>
-    <t>vou tomar sorvetinho que o biel trouxe e assistir stranger things, é o que tem pra quem vai ficar de molho até a pe… https://t.co/920ulexjnk</t>
-  </si>
-  <si>
-    <t>rt @aguiarlorran: e eu que fiz uma foto da minha sobrinha na porta e transformei minha sala na série stranger things https://t.co/lzf6hnsd6q</t>
-  </si>
-  <si>
-    <t>rt @giordanaaaaa: @ailjuliaa @caiocozta meu dia tá tão ruim vou chamar ele de stranger things😅</t>
-  </si>
-  <si>
-    <t>rt @devil_dorito: eu amo ler críticas burras dá pra ver pérolas do tipo "it pega referencias de stranger things" sim stephen king viajou no…</t>
-  </si>
-  <si>
-    <t>meudeus stranger things versão br 
-sinceramente........ forças https://t.co/hc2hfdwuj1</t>
-  </si>
-  <si>
-    <t>rt @morphsink: depois de stranger things eu nunca mais fui a mesma. toda vez que o meu nariz eu falo que sou a eleven, quando a luz pisca e…</t>
-  </si>
-  <si>
-    <t>rt @fiieveness: depois de stranger things eu nunca mais fui a mesma. toda vez que vejo alguma coisa roxa eu falo que é da millie, quando te…</t>
-  </si>
-  <si>
-    <t>idade: 15
-altura: 1,55
-tamanho do pé: 35
-estado: rj
-série favorita: stranger things 
-música favorita: medication -… https://t.co/wxxhkdg5ei</t>
-  </si>
-  <si>
-    <t>rt @pb_brg: a voz do mike da dublagem de stranger things https://t.co/o3lixromdn</t>
-  </si>
-  <si>
-    <t>na real, concordo. só ver a reação das pessoas com personagens como a sansa stark e a nancy de stranger things, q r… https://t.co/jlnytjwejj</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. pll
-2. got
-3. gossip girl
-4. 3%
-5. riverdale, suits 
-6. lucifer
-7. greys anatomy 
-8. reign 
-9.… https://t.co/ffi4772ort</t>
-  </si>
-  <si>
-    <t>rt @guilhermefon: gosto muito da billie eilish. é uma mistura de desenho do tim burton com eleven do stranger things e esgotou o pavilhão a…</t>
-  </si>
-  <si>
-    <t>@carla_roccha esqueci da melhor vê por favor (stranger things) mt boa</t>
-  </si>
-  <si>
-    <t>rt @swnflowerlwt: louis: odeio modinhas stranger things e game of thrones e esses apps que deixam as pessoas velhas odeio abacate ew odeio…</t>
-  </si>
-  <si>
-    <t>rt @marisssera: quando o assunto é ser a melhor série do mundo , stranger things ganha disparado</t>
-  </si>
-  <si>
-    <t>pareceu mais uma mistura de terror com stranger things</t>
-  </si>
-  <si>
-    <t>rt @millesmoralez: essa é a melhor cena de stranger things e nada mais importa https://t.co/lfyycjubkn</t>
-  </si>
-  <si>
-    <t>mal terminei stranger things e ja comecei a assistir euphoria</t>
-  </si>
-  <si>
-    <t>@camillaroquee o maior crush de stranger things kkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @heystrangert: strangers: 
-stranger things está concorrendo em 4 categorias
-millie concorre em 3 categorias
-e o finn concorre 1 categor…</t>
-  </si>
-  <si>
-    <t>hey, sejam bem vindos ao meu seu nosso perfil no tt, publicação mais que legais só aqui mesmo!
-obs: alerta de muit… https://t.co/cvflnen1ln</t>
-  </si>
-  <si>
-    <t>rt @obsnaturalistas: vocês falam tanto de 'demogorgon' nos comentários que eu tive de procurar o que é. nem sabia que era do stranger thing…</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “é importante pra mim que se sinta segura.” 
-— stranger things</t>
-  </si>
-  <si>
-    <t>estou amando essa dlc de stranger things no dbd caraaa https://t.co/5rrus7slus</t>
-  </si>
-  <si>
-    <t>rt @strangernatdyer: vocês já votaram em stranger things hoje? e na millie? e no finn? https://t.co/palcinkjoh</t>
-  </si>
-  <si>
-    <t>@netflixpt para quando a 4 temporada de stranger things? 😎😏</t>
-  </si>
-  <si>
-    <t>minha mãe pulando o ep 2x07 de stranger things... eu te entendo, mãe. pior ep da série toda</t>
-  </si>
-  <si>
-    <t>não fazia ideia que o ator que interpreta o billy em stranger things era são paulino</t>
-  </si>
-  <si>
-    <t>stranger things melhor série do mundo, vo chora</t>
-  </si>
-  <si>
-    <t>meu objetivo principal de ir na bienal (além de comprar os livros que eu to querendo) é tirar foto naquele cenário de stranger things!</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. os guerreiros wassabi
-2. stranger things
-3. stranger things
-4. scream
-5. la casa de papel
-6. f… https://t.co/5sxrixs1qh</t>
-  </si>
-  <si>
-    <t>@ai_ai176 @naomiaguento nao da medo!!!! parece stranger things serio</t>
-  </si>
-  <si>
-    <t>@guilhermeiran5 pesquisa mais sobre oq ele fazia com a millie de stranger things, sempre comentando è sendo super i… https://t.co/guhxxwphs7</t>
-  </si>
-  <si>
-    <t>aloooo @netflixbrasil lança a 4 temp de stranger things ai irmão
-paz</t>
-  </si>
-  <si>
-    <t>nada contra grace e frankie, usei de exemplo porque claramente não é um puta hit. 
-os puta hit da netflix atualmen… https://t.co/agozca2kph</t>
-  </si>
-  <si>
-    <t>olha pros amigos que querem me dar presente e não sabem o que , 
-eu amo canecas 
-eu amo livros 
-amo ursinhos 
-amo q… https://t.co/8hqocepcbs</t>
-  </si>
-  <si>
-    <t>rt @artsillie: depois de stranger things nunca mais fui a mesma. toda vez que alguém fala de laboratório, eu lembro do hawkins lab. toda ve…</t>
-  </si>
-  <si>
-    <t>rt @aliciavieirx: stranger things (o final da 3 temp)
-um amor para recordar
-sempre ao seu lado
-marley e eu https://t.co/2oox4akxi0</t>
-  </si>
-  <si>
-    <t>rt @vini___01: desenho do steve do stranger things 3° sesson
- versão zumbi  :b #strangerthings3 https://t.co/rwaspyriew</t>
-  </si>
-  <si>
-    <t>queria pedir encarecidamente aos elencos de it e stranger things que parassem de me confundir
-é muito mike pra doi… https://t.co/jf4sujr3te</t>
-  </si>
-  <si>
-    <t>vcs namorariam cmg? 
-altura: 1,66
-séries favoritas: game of thrones, vikings, stranger things...
-filmes fav: pirat… https://t.co/hyzw6t28zh</t>
-  </si>
-  <si>
-    <t>rt @elevencomunista: quando eu lembro que a season 4 de stranger things provavelmente vai ser a última 
-https://t.co/enukgrg9jh</t>
-  </si>
-  <si>
-    <t>que final foi esse de stranger things! tá malucooooooo</t>
-  </si>
-  <si>
-    <t>@annaalicia__ eu comecei a assistir ozark. logo após o episódio, irei assistir stranger things e digo o que achei.</t>
-  </si>
-  <si>
-    <t>nmrlkkkkkk li uma parada ai da lily allen namorando com um ator aí de stranger things eu tava imaginando q era o ga… https://t.co/47j1ct47qx</t>
-  </si>
-  <si>
-    <t>@wolfhardcoffee escrota????? você gosta de stranger things por mim a gente já se casava</t>
-  </si>
-  <si>
-    <t>em quais categorias stranger things, o finn e a millie estão concorrendo no peoples' choice awards?</t>
-  </si>
-  <si>
-    <t>rt @140_dudu: ás vezes acho que stranger things é real e que todos os monstros são as inseguranças e as pessoas com que tenho que lidar...</t>
-  </si>
-  <si>
-    <t>rt @mr_boney_: me rendi ao mundo das séries
-stranger things é sensacional.
-bom dia.</t>
-  </si>
-  <si>
-    <t>próxima première que tiver de stranger things @daniel_sharman..tu vai e não quero saber..</t>
-  </si>
-  <si>
-    <t>assistindo stranger things e lembrando me do meu ex ficante q falou que a serie era boa e eu n acreditei nele na al… https://t.co/hk2alswf6a</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. supernatural
-2. friends
-3. friends 
-4. lost
-5. lucifer
-6. b99/ friends
-7. não sei kk
-8. strang… https://t.co/gvexkbkc56</t>
-  </si>
-  <si>
-    <t>rt @gabssthings: já votaram no finn, na millie e em stranger things? 👀 https://t.co/1j7hdchr3t</t>
-  </si>
-  <si>
-    <t>parece um ogro por fora, mas choro facilmente com finais emocionantes, stranger things season 3 foi a causa da minha emoção da vez kkk</t>
-  </si>
-  <si>
-    <t>é verdade ele morre — primeiro: como tu sabe q to vendo stranger things? segundo: qual a brisa de dar spoiler? kkkk https://t.co/5a8udagay1</t>
-  </si>
-  <si>
-    <t>amo la música de stranger things.</t>
-  </si>
-  <si>
-    <t>13 perguntas aleatórias demais para serem respondidas rapidamente:
-1 - hoje
-2 - domingo
-3 - l
-4 - l
-5 - hoje
-6 - s… https://t.co/dizdvuc2ja</t>
-  </si>
-  <si>
-    <t>@ironmwnx @tarsilafs é foda ñ gostar de stranger things, e ñ poder chamar os atores de feios em</t>
-  </si>
-  <si>
-    <t>comecei a ver a terceira temporada de stranger things e puta merda</t>
-  </si>
-  <si>
-    <t>vendo o ptb de stranger things 🤤</t>
-  </si>
-  <si>
-    <t>a pior crítica de it 2 q li até agira foi a da @folha , eles simplesmente falam q eles tiveram influência de strang… https://t.co/5uqmu876jk</t>
-  </si>
-  <si>
-    <t>queria muito saber se na bienal tem o livro stranger things raízes do mal</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. the flash
-2. stranger things 
-3. stranger things
-4. la casa de papel
-5. greys anatomy
-6. b99
-7… https://t.co/yofrciq9st</t>
-  </si>
-  <si>
-    <t>fora os doramas, quais séries são suas favoritas? — the oc, one three hill, greys, heartland, gilmore girls, strang… https://t.co/ozpwucxttx</t>
+9. dark
+10. euphoria
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>a voz do mike da dublagem de stranger things https://t.co/o3lixromdn</t>
+  </si>
+  <si>
+    <t>rt @gwnstci: preciso de alguem que goste de
+stranger things
+one direction 
+one day at a time 
+harry potter 
+marvel
+qualquer filme da disne…</t>
+  </si>
+  <si>
+    <t>@venuz99 pessoas bebadas e suas stranger things pós acordar , “pq essa parte (insira uma parte do corpo) esta doendo tanto como se eu tivesse batido ela em algum lugar? , etc perguntas q nunca serão respondidas</t>
+  </si>
+  <si>
+    <t>sobre o final dessa terceira temporada de stranger things:
+*f*</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -330,237 +962,171 @@
 2. sherlock e ahs
 3. sherlock, ahs, stranger things
 4. riverdale
-5. pun… https://t.co/gz4awpt2ek</t>
-  </si>
-  <si>
-    <t>não sei se eu já contei, mas minha vizinhança é cheia de gatos e de vez em quando tem uns andando pelo telhado da m… https://t.co/2vk3xiqnbe</t>
-  </si>
-  <si>
-    <t>quando vcs vieram aqui em casa ver stranger things e ai vc ficou a madrugada toda pq tava fazendo hora pra buscar s… https://t.co/egohnvoz2r</t>
-  </si>
-  <si>
-    <t>@amandas_s1 stranger things é, mo</t>
-  </si>
-  <si>
-    <t>eu tenho orgulho de dizer q eu sou fã de stranger things desde a primeira temp 
-modinhas q chorem</t>
-  </si>
-  <si>
-    <t>já votaram no finn, na millie e em stranger things? 👀 https://t.co/1j7hdchr3t</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. futurama 
-2. heroes e st (o valor sentimental sabe)
-3. the walking dead (sdds quando era fã)
-4… https://t.co/suwnwqokar</t>
-  </si>
-  <si>
-    <t>pensando em assistir stranger things só pra ver esse tal de dacre montgomery</t>
-  </si>
-  <si>
-    <t>@norranefreitasc eu queria só ir pra ficar com vontade de comprar livros sem poder e tirar foto na parede do stranger things</t>
-  </si>
-  <si>
-    <t>finalmente eu irei começar dois seriados que tanto me falavam para assistir e eu não dava uma bola. stranger things e ozark.</t>
-  </si>
-  <si>
-    <t>stranger things está cabronaaaaa cc</t>
-  </si>
-  <si>
-    <t>preciso de alguem que goste de
-stranger things
-one direction 
-one day at a time 
-harry potter 
-marvel
-qualquer fil… https://t.co/ptbtcnlwxj</t>
-  </si>
-  <si>
-    <t>dlc de stranger things no dbd meu deus oq esse jogo virou</t>
-  </si>
-  <si>
-    <t>nem fudendo que tem retardado que shippa o mike e o will em stranger things, tem louco pra tudo</t>
-  </si>
-  <si>
-    <t>rt @luisafduarte: nao sei se eu choro de rir mais da minha mae falando stranger things ou dela com medo do "monstrão"
-hahahahahahahahahaha…</t>
-  </si>
-  <si>
-    <t>indo dormir de madrugada só pra ver os gameplay da extensão de stranger things de dbd</t>
-  </si>
-  <si>
-    <t>séries que já assiste 
-grey's anatomy (n terminei)
-areia movediça
-insatiable
-friends
-baby
-elite
-la casa de papel… https://t.co/qabrns3zqs</t>
-  </si>
-  <si>
-    <t>vocês já votaram em stranger things hoje? e na millie? e no finn? https://t.co/palcinkjoh</t>
-  </si>
-  <si>
-    <t>fiz minha mãe assistir stranger things, só que agora ela não para mais kkkkkkkkk ta assistindo 5 episodios seguidos</t>
-  </si>
-  <si>
-    <t>sim perdao so to terminando stranger things 3 agr</t>
-  </si>
-  <si>
-    <t>enrolei tanto p ver stranger things e não sofrer, mas n paro de chorar com o fim</t>
-  </si>
-  <si>
-    <t>@lokislytherinx meu deus q serie da porra só com stranger things</t>
-  </si>
-  <si>
-    <t>stranger things veja isto https://t.co/njzjidn4mx</t>
-  </si>
-  <si>
-    <t>toda vez que alguém fala de stranger things perto de mim eu abro um sorriso tão grande pqp sou muito cadelinha</t>
-  </si>
-  <si>
-    <t>toda foto que eu vejo agora do boris johnson, eu lembro do bruce, o jornalista babaca dessa última temporada de str… https://t.co/gzgvskdjt0</t>
-  </si>
-  <si>
-    <t>@himhstyles ele tá igualzinho o billy de stranger things na primeira foto eu to-</t>
-  </si>
-  <si>
-    <t>uma serie que indicaria — anne with an e, the fosters, maldição da residência hill, stranger things, desventuras em… https://t.co/agaounbnsc</t>
-  </si>
-  <si>
-    <t>só vou no 3° episódio e já tou viciado em stranger things</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. pretty little liars
-2. greys anatomy
-3. inteira, nenhuma
-4. não sei
-5. once upon a time
-6. fri… https://t.co/po7qtqa4on</t>
+5. punho de ferro
+6. sherlock 
+7. sherlock
+8. sherlock
+9. s h e r l o c k
+10. sherlock e ahs
+comenta um emoji e mando as perguntas</t>
   </si>
   <si>
     <t>idade: 16
 altura: 1,62 (ñ sei)
 estado: namorando
 série favorita: stranger things
-música favorita: pico de adrenalin… https://t.co/z9rkj0h8xa</t>
-  </si>
-  <si>
-    <t>em 3 anos de stranger things os pirraias parece que cresceram 10 anos. eleven cresceu, namorou, ta com teta e os de… https://t.co/gbwkxpyip1</t>
-  </si>
-  <si>
-    <t>ainda vou assistir stranger things junto com a laryssa</t>
-  </si>
-  <si>
-    <t>rt @hollander200: top 4 de cenas que eu nunca vou superar em stranger things 3😭❤ https://t.co/3wnlv3aidx</t>
-  </si>
-  <si>
-    <t>nunca pensei que diria isso, mas ultimamente tá melhor assitir uns ep de stranger things do que esses jogos da copa do brasil.</t>
-  </si>
-  <si>
-    <t>@fairylwtt @stranger_things aonde q eh isso</t>
-  </si>
-  <si>
-    <t>é o billy de stranger things??? https://t.co/myw2g4wnyo</t>
+música favorita: pico de adrenalina - konai
+comida favorita: hambúrguer
+anime favorito: bnha
+descrição sobre você: desenho, gatos, direitos humanos, surtada porém um amor, 🥦
+aniversário:31/05/2003 https://t.co/mp1kl9xa5e</t>
   </si>
   <si>
     <t>• sobre séries •
-1. violetta
-2. friends 
-3. stranger things 
-4. não sei k
-5. pll, porém eu gosto
-6. friends
-7. gre… https://t.co/gtxpxem6qh</t>
-  </si>
-  <si>
-    <t>só queria uma mimosa p assistir stranger things comigo</t>
-  </si>
-  <si>
-    <t>terminei stranger things e não gostei do final da temporada 💔</t>
-  </si>
-  <si>
-    <t>na vdd é stranger things q faz referência a it, ne https://t.co/betvskfhpj</t>
-  </si>
-  <si>
-    <t>e se it e stranger things se passam no mesmo universo e o mike e o richie são irmãos gêmeos perdidos</t>
-  </si>
-  <si>
-    <t>@blairwdrf9 @stranger_things moreh, só vai</t>
-  </si>
-  <si>
-    <t>@benozzatiarthur assistindo stranger things e me sentindo uma coisah estranhah</t>
-  </si>
-  <si>
-    <t>@blairwdrf9 @stranger_things vc ia surtar, certeza</t>
-  </si>
-  <si>
-    <t>22h e eu chorando com o último episódio de stranger things</t>
-  </si>
-  <si>
-    <t>rt @brunat98: o steve para a erica em stranger things https://t.co/ndhvw6ixla</t>
-  </si>
-  <si>
-    <t>obg stranger things por me destruir</t>
-  </si>
-  <si>
-    <t>@serenogustavo foi expulso do mbl para a nova temporada de stranger things. boa, dustin! https://t.co/ghriuouimc</t>
-  </si>
-  <si>
-    <t>não vai ter eu conhecendo o elenco de stranger things https://t.co/t2xyc1i85k</t>
-  </si>
-  <si>
-    <t>supostamente vou ver it 2 amanhã e estou com zero hype pq acho que inconscientemente a saturação que eu tenho com s… https://t.co/62euwthoyy</t>
-  </si>
-  <si>
-    <t>queria 10 temporadas de stranger things ô série gostosa de assistir</t>
-  </si>
-  <si>
-    <t>nunca chorei tanto c filme série e pá 
-igual chorei c o final de stranger things</t>
-  </si>
-  <si>
-    <t>me rendi ao mundo das séries
-stranger things é sensacional.
-bom dia.</t>
-  </si>
-  <si>
-    <t>o último episódio de stranger things me fez morrer de rir kkkk</t>
-  </si>
-  <si>
-    <t>acordei 5h com um barulho de energia elétrica sla, muito stranger things sim, mas aparentemente foi só o transforma… https://t.co/cwesgkl1fa</t>
-  </si>
-  <si>
-    <t>mamae acha que now united e stranger things é a mesma coisa https://t.co/cxvebttuqd</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1.supernatural 
-2.várias 
-3.the vampire diares, the good place
-4.riverdale
-5.greys
-6.stranger thi… https://t.co/3eyprfyucm</t>
+1. pll 
+2. skins, sense 8, tvd, gg, stranger things, b99, mundo sombrio de sabrina
+4. under the dome ódio
+5. shadowhunters
+6. b99
+7. olha difícil, acho q já chorei em todas k
+8. sense 8
+9. gatunas 
+10. skins
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>@drogadanny amiga???? é de stranger things
+billy</t>
+  </si>
+  <si>
+    <t>chorei com o final de stranger things vei</t>
+  </si>
+  <si>
+    <t>sem sono, e acabei stranger things, que tristeza melhor série https://t.co/ytablgdeze</t>
+  </si>
+  <si>
+    <t>estou amando essa dlc de stranger things no dbd caraaa https://t.co/5rrus7slus</t>
+  </si>
+  <si>
+    <t>meudeus stranger things versão br 
+sinceramente........ forças https://t.co/hc2hfdwuj1</t>
+  </si>
+  <si>
+    <t>eu acabei de perceber que o jojo, tem o nome do meu personagem favorito de stranger things. 🥺</t>
+  </si>
+  <si>
+    <t>queria muito saber se na bienal tem o livro stranger things raízes do mal</t>
+  </si>
+  <si>
+    <t>4 anos atras meu ex me deu spoiler de star wars no dia da estreia falando q o han solo ia morrer agora devolvi falando q o hopper morre em stranger things https://t.co/8n9hjqa20m</t>
   </si>
   <si>
     <t>• sobre séries •
 1. supernatural
-2. supernatural kk
-3. skam e skins
-4. the vampire diaries
-5. acho que greys anato… https://t.co/oflbq82t7c</t>
-  </si>
-  <si>
-    <t>que deus o que irmão isso é o cenário onde foi gravado stranger things https://t.co/tvu3uebmvg</t>
-  </si>
-  <si>
-    <t>riverdale eh bom, mas nunca vai ultrapassar stranger things https://t.co/atarkwmjwd</t>
-  </si>
-  <si>
-    <t>filmes/series favoritas? — pergunta mt dificil pra uma pessoa q nem eu que n assiste nada, entao stranger things https://t.co/imhox5p0n8</t>
+2. glee
+3. glee
+4. the rain
+5. stranger things, mas ainda quero reassistir
+6. brooklyn 99
+7. glee, supernatural e the 100
+8. the 100
+9. puts, tantas
+10. glee
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>rt @reasonsillie: eu depois de assistir o último episódio da s3 de stranger things  https://t.co/qyx7m1ghuq</t>
+  </si>
+  <si>
+    <t>rt @elxloser: au - fillie 
+• ᴏɴᴇ ᴘʀᴇᴍɪᴇʀᴇ ᴄᴀɴ ᴄʜᴀɴɢᴇ ᴇᴠᴇʀʏᴛʜɪɴɢ
+onde após a festa da premiere de stranger things, finn e millie não conseg…</t>
+  </si>
+  <si>
+    <t>rt @brunat98: o steve para a erica em stranger things https://t.co/ndhvw6ixla</t>
+  </si>
+  <si>
+    <t>@godoyjehy já viu stranger things? eu vi as 3 temporadas e gostei. 😂</t>
+  </si>
+  <si>
+    <t>@caioandrade_f duvido eu criar coragem, no começo eu tinha medo até de stranger things kkkk</t>
+  </si>
+  <si>
+    <t>mamae acha que now united e stranger things é a mesma coisa https://t.co/cxvebttuqd</t>
+  </si>
+  <si>
+    <t>2019 e tenho que ouvir que it é cópia de stranger things. ai olha... https://t.co/qdz0rn43k7</t>
+  </si>
+  <si>
+    <t>na vdd é stranger things q faz referência a it, ne https://t.co/betvskfhpj</t>
+  </si>
+  <si>
+    <t>gente terminei a season 1 de stranger things e manooooo como eu n vi essa serie antessss</t>
+  </si>
+  <si>
+    <t>vou maratonar stranger things hoje</t>
+  </si>
+  <si>
+    <t>me :
+stranger things (cena da carta do hopper)
+the walking dead
+vingadores ultimato 
+guardiões da galáxia vol. 2
+uma lição de amor https://t.co/fccwxmbcly</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. icarly
+2. stranger things
+3. várias, mas h2o ja vi milhares de vezes
+4. riverdale
+5. n to lembrando nenhuma agr
+6. boa sorte charlie
+7. greys anatomy
+8. anne with an e
+9.  onde day a time, merecia muito mais
+10.  skam
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>não fazia ideia que o ator que interpreta o billy em stranger things era são paulino</t>
+  </si>
+  <si>
+    <t>@fairylwtt @stranger_things agora mesmo que eu vou</t>
+  </si>
+  <si>
+    <t>stranger things
+o atirador
+legends of tomorrow
+os defensores
+one punch
+nanatsu no taizai 
+rick e morty
+death note 
+final space
+justiça jovem
+fullmetal alchemist
+yu-gi-oh!
+cavaleiros do zodíaco
+naruto
+dragon ball</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. acho que smallville
+2. got e friends 
+3. got e friends kkkkkkkk
+4. teen wolf, riverdale 
+5. flash 
+6. friends 
+7. nenhuma eu acho 
+8. stranger things
+9. não sei 
+10. dark 
+comenta um emoji e mando as perguntas</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -570,223 +1136,39 @@
 4. tvd,teen wolf  
 5.riverdale 
 6. friends
-7… https://t.co/pry7qlpc9h</t>
-  </si>
-  <si>
-    <t>obrigada stranger things por me fazer chorar e ficar com dor de cabeça</t>
-  </si>
-  <si>
-    <t>essa dlc de stranger things no dbd, tem tudo pra ser a melhor dlc. o demogorgon tá lindão</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “quando encontramos o perigo, nossos corações batem mais forte.” 
-— stranger things</t>
-  </si>
-  <si>
-    <t>um crítico da @folhailustrada disse que o it 2 faz referência(!) a stranger things. era o estímulo que eu precisava… https://t.co/mqtcgyq44m</t>
-  </si>
-  <si>
-    <t>rt @elxloser: au - fillie 
-• ᴏɴᴇ ᴘʀᴇᴍɪᴇʀᴇ ᴄᴀɴ ᴄʜᴀɴɢᴇ ᴇᴠᴇʀʏᴛʜɪɴɢ
-onde após a festa da premiere de stranger things, finn e millie não conseg…</t>
-  </si>
-  <si>
-    <t>tomar um café e terminar stranger things agr cedo</t>
-  </si>
-  <si>
-    <t>pra mim a primeira temporada de stranger things foi mais assustadora do que o it</t>
-  </si>
-  <si>
-    <t>garotas mt atrasadas que só acabaram agora a última temporada de stranger things e choraram litros com o episódio final</t>
-  </si>
-  <si>
-    <t>hj eu sonhei que me mandaram um email falando q eu ia atuar na s4 de stranger things</t>
-  </si>
-  <si>
-    <t>so gostaria de dizer que so nao me desidratei com o fim de stranger things por puro orgulho, mas eu to chorando horrores por dentro</t>
-  </si>
-  <si>
-    <t>@smayhoan é de stranger things, mo</t>
-  </si>
-  <si>
-    <t>vou maratonar stranger things hoje</t>
-  </si>
-  <si>
-    <t>@nninhavs lídia de bettle juice, acho que ficaria mto legal como a nancy ou a robin  de stranger things.</t>
-  </si>
-  <si>
-    <t>me :
-stranger things (cena da carta do hopper)
-the walking dead
-vingadores ultimato 
-guardiões da galáxia vol. 2
-um… https://t.co/p0jyihas9n</t>
-  </si>
-  <si>
-    <t>rt @imcitygiri: toda vez que alguém fala de stranger things perto de mim eu abro um sorriso tão grande pqp sou muito cadelinha</t>
-  </si>
-  <si>
-    <t>@gabriellegimenz jamaissss... em stranger things ele ta perfeito tambem</t>
-  </si>
-  <si>
-    <t>minha tia tá com medo de assistir stranger things kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>eu quando acabei stranger things 3 https://t.co/08332fzesj</t>
-  </si>
-  <si>
-    <t>@liandreor @fernandes_lalaa lais vc isso comigo em stranger things acredita??</t>
-  </si>
-  <si>
-    <t>nét flix poderia liberar stranger things 4 logo 
-saudades</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. hannah montana
-2. gilmore girls
-3. stranger things
-4. la casa de papel 
-5. the flash 
-6. frien… https://t.co/sl1itpxfwz</t>
-  </si>
-  <si>
-    <t>rt @moonlarys: pareceu mais uma mistura de terror com stranger things</t>
-  </si>
-  <si>
-    <t>hoje o debate do tênis voltou e tiveram o displante de me falar que o nike x stranger things cortez não vale 500 re… https://t.co/60cf9iojru</t>
-  </si>
-  <si>
-    <t>melhor coisa e maratona stranger things inteira denovo</t>
-  </si>
-  <si>
-    <t>queria esquecer que vi stranger things e rever tudo de novo</t>
-  </si>
-  <si>
-    <t>manooooo, 3 temporada de stranger things foi muitoooooooo fodaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>o michelzinho alegrou meu dia assoviando a musiquinha de stranger things</t>
-  </si>
-  <si>
-    <t>@venuz99 pessoas bebadas e suas stranger things pós acordar , “pq essa parte (insira uma parte do corpo) esta doend… https://t.co/1kjn8jqge2</t>
-  </si>
-  <si>
-    <t>rt @jackdylanboo: depois de stranger things eu nunca mais fui a mesma. toda vez q eu vejo um eggo eu lembro da eleven, sempre q vejo um fli…</t>
-  </si>
-  <si>
-    <t>porra tocou motley crue em stranger things eu to muito feliz tomanocu</t>
-  </si>
-  <si>
-    <t>stranger things | cena inédita da 2ª temporada é revelada em jogo de celular.
-confira: https://t.co/uh6keopese</t>
-  </si>
-  <si>
-    <t>nunca vo entender vcs passando pano pro billy de stranger things sinceramente</t>
-  </si>
-  <si>
-    <t>@captzinlarson @jugbettxz vcs estão falando da millie de stranger things ne?! https://t.co/qprg0fazca</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “acho que prefiro observar as pessoas do que falar com elas.”
-— stranger things</t>
-  </si>
-  <si>
-    <t>4 anos atras meu ex me deu spoiler de star wars no dia da estreia falando q o han solo ia morrer agora devolvi fala… https://t.co/jseelaprbt</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. stranger things
-2. stranger things
-3. lucifer
-4. riverdale
-5. riverdale
-6. (des)encantados
-7.… https://t.co/y2jewcmooh</t>
-  </si>
-  <si>
-    <t>amanha termino a s1 de stranger things sofrokkk</t>
-  </si>
-  <si>
-    <t>@su_candido parece que saiu de uma revista dos anos 80. alguém avisa que stranger things já passou hahahaha</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. jessie
-2. mundo sombrio de sabrina
-3. boa sorte charlie
-4. 13 reasons why dps da primeira temp… https://t.co/pc6cjwb4c1</t>
-  </si>
-  <si>
-    <t>comecei a terceira temporada de stranger things</t>
-  </si>
-  <si>
-    <t>idade: 20
-altura: 1,63
-tamanho do pé: 37/38
-estado: rj 
-série favorita: stranger things, got, teen wolf
-música favo… https://t.co/ha9hrn8qfv</t>
-  </si>
-  <si>
-    <t>vontade de assistir stranger things de novo</t>
-  </si>
-  <si>
-    <t>eu acabei de perceber que o jojo, tem o nome do meu personagem favorito de stranger things. 🥺</t>
-  </si>
-  <si>
-    <t>fala tu twitter terminei dark, stranger things e sintonia
-que q é pra ver agora?</t>
-  </si>
-  <si>
-    <t>rt @caroldrnvrs: um dos melhores casais de stranger things se não for já o melhor, stan lumax for clean skin ✨ https://t.co/ruxnqzckja</t>
-  </si>
-  <si>
-    <t>@tarsilafs é impressionante o jeito que algumas séries cagam alguns atores fisicamente, como stranger things teve a… https://t.co/4vybtw2vby</t>
-  </si>
-  <si>
-    <t>ando es pegada con stranger things</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. the vampire diaries
-2. no momento euphoria
-3. tentei ver tvd mas parei
-4. twd
-5. 13rw
-6. oitnb… https://t.co/2s5zboqzov</t>
-  </si>
-  <si>
-    <t>@prihssoares_ @ddlwiitness @camillemabreu gato porém fiquei puta com ele em stranger things kkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>fav e mando 6 perguntas por dm 
-1- l
-2- j
-3- azul💙
-4- stranger things 
-5- p
-6- nao</t>
-  </si>
-  <si>
-    <t>@fairylwtt @stranger_things gente eu quero isso pra ontem</t>
-  </si>
-  <si>
-    <t>@softxmillie @briexlrson stranger things rainha e sabrina fada, o outro n sei</t>
-  </si>
-  <si>
-    <t>eu t a curtir de stranger things não pela história pq isto é só tangas 
-mas os putos são uns atores do crl</t>
-  </si>
-  <si>
-    <t>@josephserraop @rafarager @slinkyyy_ @millgrr foto de stranger things, comparte culos nada mas que ver</t>
-  </si>
-  <si>
-    <t>caramba
-quem colocou o exterminador do futuro na terceira temporada de stranger things??</t>
-  </si>
-  <si>
-    <t>mano sério eu abri a porta lá de trás e dei de cara com o céu desse jeito achei que tava tendo um pesadelo no universo de stranger things</t>
+7. grey’s com ctz 
+8. stranger things 
+9. one day at a time 
+10. criminal minds 
+comenta um emoji e mando as pergunta</t>
+  </si>
+  <si>
+    <t>queria pedir encarecidamente aos elencos de it e stranger things que parassem de me confundir
+é muito mike pra dois filmes, muito moleque parecido socorro</t>
+  </si>
+  <si>
+    <t>rt @luscas: desculpa posso parecer um pouco precipitado mas... cadê a s4 de stranger things netflix</t>
+  </si>
+  <si>
+    <t>tweets que eu gostaria de dar rt se não fossem replicados pela instituição "perfil com foto do menino do stranger things"</t>
+  </si>
+  <si>
+    <t>@annaalicia__ eu comecei a assistir ozark. logo após o episódio, irei assistir stranger things e digo o que achei.</t>
+  </si>
+  <si>
+    <t>o último episódio de stranger things me fez morrer de rir kkkk</t>
+  </si>
+  <si>
+    <t>não vai ter eu conhecendo o elenco de stranger things https://t.co/t2xyc1i85k</t>
+  </si>
+  <si>
+    <t>mal terminei stranger things e ja comecei a assistir euphoria</t>
+  </si>
+  <si>
+    <t>vou dormir tarde baixando os episódios de stranger things</t>
+  </si>
+  <si>
+    <t>@jublb drace montgomery, ele faz o vilão da última season de stranger things</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -798,469 +1180,62 @@
 6. b99
 7. sense8
 8. sherlock
-9. l… https://t.co/ieboaoveki</t>
-  </si>
-  <si>
-    <t>só hoje eu percebi que a cena da casa de espelhos em stranger things 3 pode ser uma referência a it e eu to decepci… https://t.co/qyxs18uhge</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>rt @gyrozeppelin08: @josephserraop @rafarager @slinkyyy_ @millgrr foto de stranger things, comparte culos nada mas que ver</t>
+9. lá casa de las flores
+10. lá casa de las flores 
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>@himhstyles ele tá igualzinho o billy de stranger things na primeira foto eu to-</t>
+  </si>
+  <si>
+    <t>@lokislytherinx meu deus q serie da porra só com stranger things</t>
+  </si>
+  <si>
+    <t>rt @4namda: só queria ver stranger things 4 cara https://t.co/4mpd72hxis</t>
+  </si>
+  <si>
+    <t>filmes/series favoritas? — pergunta mt dificil pra uma pessoa q nem eu que n assiste nada, entao stranger things https://t.co/imhox5p0n8</t>
   </si>
   <si>
     <t>• sobre séries •
-1. teen wolf
-2. todas que eu assisti.
-3. stranger things, teen wolf
-4. 13 reasons why
-5. acho que… https://t.co/l299zhfpth</t>
-  </si>
-  <si>
-    <t>essa terceira temporada de stranger things é maravilhosa me arrependi de não ter assistido antes</t>
-  </si>
-  <si>
-    <t>eu só ia lembrar dele de salva vidas em stranger things, e eu querendo me afogar nql piscina kkk https://t.co/mxtvhcqkgu</t>
-  </si>
-  <si>
-    <t>achar o steve de stranger things a coisa mais fofa do mundo é um caminho sem volta</t>
-  </si>
-  <si>
-    <t>stranger things (o final da 3 temp)
-um amor para recordar
-sempre ao seu lado
-marley e eu https://t.co/2oox4akxi0</t>
-  </si>
-  <si>
-    <t>stranger things
-o atirador
-legends of tomorrow
-os defensores
-one punch
-nanatsu no taizai 
-rick e morty
-death note… https://t.co/prpp40vonf</t>
-  </si>
-  <si>
-    <t>@peixonaut4 @laurinhalero eu criei uma imagem na minha cabeça onde ela é igual a robin de stranger things e agora n… https://t.co/ubrkcehlma</t>
-  </si>
-  <si>
-    <t>ganhei a camisa com o letreiro de stranger things ajdkakmsmsms aaaaaa</t>
-  </si>
-  <si>
-    <t>rt @gabssthings: alô fandom de st⚠
-a millie, o finn e stranger things estão concorrendo em várias categorias no pca, é super fácil votar e…</t>
-  </si>
-  <si>
-    <t>até não lançarem minhas séries n sou 100% completa
-@stranger_things 
-@handmaidsonhulu 
-@lacasadepapel 
-...</t>
-  </si>
-  <si>
-    <t>toda vez q vou dirigir eu finjo q sou o billy de stranger things mato 4 crianças</t>
-  </si>
-  <si>
-    <t>encontrei uma mina a copia da max de stranger things que toca bateria, a menina é simplesmente maravilhosa de coisa mais foda bicho</t>
-  </si>
-  <si>
-    <t>rt @bluelockscreens: 🎲stranger things🎲
-#strangerthings
-《deixe a adm aberta 
-《esteja seguindo o projeto
-《fv se você gostar
-《rt para receber…</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. icarly (conta?) 
-2. dark (ja que got acabou)
-3. nenhuma
-4. stranger things (espero conseguir t… https://t.co/eszbh2mzxn</t>
-  </si>
-  <si>
-    <t>toda vez eu falo p minha irma assistir x serie comigo e ela nunca quer, mas ai depois de um tempo ela resolve assis… https://t.co/npcwh7dirw</t>
-  </si>
-  <si>
-    <t>essa série stranger things parece ser da hr vou assistir</t>
-  </si>
-  <si>
-    <t>acho que vou ver stranger things de novo</t>
-  </si>
-  <si>
-    <t>série de ficção científica/fantasia de 2019 #pcas
-• arrow
-• chilling adventures of sabrina
-• shadowhunters
-• strang… https://t.co/aaxrq3pbu5</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. pll
-2. vis a vis e the 100
-3. nenhuma
-4. tvd 
-5. 13rw 
-6. sex education
-7. stranger things
-8.… https://t.co/j7ltaiojtg</t>
-  </si>
-  <si>
-    <t>lembrei q terminei stranger things https://t.co/mjpleptkn0</t>
-  </si>
-  <si>
-    <t>alguém indica uma série boa ae, sem ser stranger things e sintonia..</t>
-  </si>
-  <si>
-    <t>sem sono, e acabei stranger things, que tristeza melhor série https://t.co/ytablgdeze</t>
-  </si>
-  <si>
-    <t>pessoas que vêem meus rtts, me desculpem por eu dar rt em tudo de stranger things e aparecer tudo na sua tml</t>
-  </si>
-  <si>
-    <t>caralho stranger things que bicho nojento q vcs fizeram</t>
-  </si>
-  <si>
-    <t>acabei de descobrir que stranger things supostamente não irá ter mais do que 5 temporadas 😖</t>
-  </si>
-  <si>
-    <t>vou dormir tarde baixando os episódios de stranger things</t>
-  </si>
-  <si>
-    <t>it e stranger things passando pelos mesmos problemas de fazer flashbacks com crianças que já cresceram.</t>
+1. riverdale
+2. gossip girl
+3. gossip girl
+4. lucifer
+5. greys anatomy
+6. rupaul's
+7. atypical
+8. stranger things  
+9. lucifer 
+10. gatunas
+comenta um emoji e mando as perguntas!</t>
   </si>
   <si>
     <t>stranger things continuam acontecendo</t>
   </si>
   <si>
-    <t>dropei 
-stranger things
-possessed e 
-ventos de inverno eu so um lishoooo</t>
-  </si>
-  <si>
-    <t>enfim, ontem foi o dia do 18tao e pa. no fim das contas quis ficar em casa vendo stranger things, sem role e amigos… https://t.co/nimy1nf4i1</t>
-  </si>
-  <si>
-    <t>• sobre séries • 
-1. skins 
-2. breaking bad
-3. american horror story 
-4. the walking dead 
-5. sense8 
-6. friends
-7.… https://t.co/3pxhqbsefn</t>
+    <t>stranger things veja isto https://t.co/njzjidn4mx</t>
+  </si>
+  <si>
+    <t>acho que vou baixar stranger things no meu notebook porque sempre quero assistir de novo</t>
+  </si>
+  <si>
+    <t>uma serie que indicaria — anne with an e, the fosters, maldição da residência hill, stranger things, desventuras em série... https://t.co/is4enjwwyf</t>
+  </si>
+  <si>
+    <t>@softxmillie @briexlrson stranger things rainha e sabrina fada, o outro n sei</t>
+  </si>
+  <si>
+    <t>pra mim a primeira temporada de stranger things foi mais assustadora do que o it</t>
+  </si>
+  <si>
+    <t>rt @spidermilesz: hoje no meu curso meu professor colocou o último episódio de stranger things para a gente assistir :') https://t.co/brnaf…</t>
   </si>
   <si>
     <t>@ailjuliaa @caiocozta meu dia tá tão ruim vou chamar ele de stranger things😅</t>
   </si>
   <si>
-    <t>e eu que ainda tô assistindo a terceira temporada de stranger things. pelo menos tô assistindo com meus amigos</t>
-  </si>
-  <si>
-    <t>vou assistir a segunda temporada de stranger things agora, já vi alguns minutos e já surtei.</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. sense8
-2. stranger things e oitnb
-3. anne with an e
-4. the vampire diaries
-5. black mirror
-6.… https://t.co/w41t3wykep</t>
-  </si>
-  <si>
-    <t>2019 e tenho que ouvir que it é cópia de stranger things. ai olha... https://t.co/qdz0rn43k7</t>
-  </si>
-  <si>
-    <t>tpm: a
-eu: blz vou ver o último ep de stranger things</t>
-  </si>
-  <si>
-    <t>quando assisti o último episódio de stranger things. https://t.co/eao8kmhq9x</t>
-  </si>
-  <si>
-    <t>tweets que eu gostaria de dar rt se não fossem replicados pela instituição "perfil com foto do menino do stranger things"</t>
-  </si>
-  <si>
-    <t>@jublb drace montgomery, ele faz o vilão da última season de stranger things</t>
-  </si>
-  <si>
-    <t>aqui está uma música para você… stranger things de freedom fighters
-https://t.co/t9vykuqx3j</t>
-  </si>
-  <si>
-    <t>it dessa geração ficou mt stranger things o que fica a impressão de que eu gosto mas queria um remake de terror igual o de 90 msm</t>
-  </si>
-  <si>
-    <t>acho que vou ver stranger things de novo cara kkkkkkk</t>
-  </si>
-  <si>
-    <t>@blairwdrf9 @stranger_things kkkkkkkkk queria</t>
-  </si>
-  <si>
-    <t>em qual ep q a gente começa a entender stranger things, pq tô no quinto e até agr n entendi nd</t>
-  </si>
-  <si>
-    <t>rt @ericmonteiro_: sdd daquilo q começa com s
-stranger things</t>
-  </si>
-  <si>
-    <t>ás vezes acho que stranger things é real e que todos os monstros são as inseguranças e as pessoas com que tenho que lidar...</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. the o.c (acredito)
-2. lcdp
-3. rbd: la familia
-4. grey's anatomy/ got/ gg/ ppll...
-5. desventur… https://t.co/mbsmxmusta</t>
-  </si>
-  <si>
-    <t>já tamo ao vivo e hoje vamos testar a dlc do stranger things no dead by daylight:
-https://t.co/pfhaf6jyxn https://t.co/hkvnyznmai</t>
-  </si>
-  <si>
-    <t>rt @luscas: desculpa posso parecer um pouco precipitado mas... cadê a s4 de stranger things netflix</t>
-  </si>
-  <si>
-    <t>ja sei caralho, é o irmão da max do stranger things ahahah 
-sem o cabelo dele na serie n o reconhecia</t>
-  </si>
-  <si>
-    <t>eu podendo escolher entre ver a nova temporada de queer eye, de stranger things... resolvo assistir 13 reasons 🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t>gente terminei a season 1 de stranger things e manooooo como eu n vi essa serie antessss</t>
-  </si>
-  <si>
-    <t>resumo rápido de stranger things.
-tem um buraco negro com uns monstro dentro,aí as criança fecham o buraco o govern… https://t.co/a4tslhwrpb</t>
-  </si>
-  <si>
-    <t>rt @4namda: só queria ver stranger things 4 cara https://t.co/4mpd72hxis</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. pll 
-2. skins, sense 8, tvd, gg, stranger things, b99, mundo sombrio de sabrina
-4. under the d… https://t.co/dbv8iabygi</t>
-  </si>
-  <si>
-    <t>rt @apanheidavida: "amigo é alguém por quem você faria qualquer coisa." — stranger things</t>
-  </si>
-  <si>
-    <t>acabei de descobrir q eu sou a cara do mike de stranger things</t>
-  </si>
-  <si>
-    <t>vou acabar de ver stranger things 😴</t>
-  </si>
-  <si>
-    <t>já pode entrar pro cast de stranger things https://t.co/9aed6o9o22</t>
-  </si>
-  <si>
-    <t>assistindo essa dlc de stranger things no dead by daylight e me deu uma vontade de jogar isso</t>
-  </si>
-  <si>
-    <t>@santtinin ação tem good girls, stranger things, lúcifer, sense 8</t>
-  </si>
-  <si>
-    <t>rt @veado_hater: supostamente vou ver it 2 amanhã e estou com zero hype pq acho que inconscientemente a saturação que eu tenho com stranger…</t>
-  </si>
-  <si>
-    <t>@godoyjehy já viu stranger things? eu vi as 3 temporadas e gostei. 😂</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. ouat
-2. castle
-3. castle
-4. gossip girl
-5. nenhuma 
-6. friends 
-7. stranger things
-8. várias
-9… https://t.co/vjwpac344u</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. supernatural
-2. glee
-3. glee
-4. the rain
-5. stranger things, mas ainda quero reassistir
-6. bro… https://t.co/zhco7xzus6</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. icarly
-2. stranger things
-3. várias, mas h2o ja vi milhares de vezes
-4. riverdale
-5. n to lemb… https://t.co/zwxls6nt9u</t>
-  </si>
-  <si>
-    <t>caraio sonhei com stranger things e acordei com medo do dermogorgom kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>assisti verão de 84, achei bem bom. estilo stranger things com uma pitada daquele filme do shia, paranóia</t>
-  </si>
-  <si>
-    <t>3temp de stranger things eh mt foda</t>
-  </si>
-  <si>
-    <t>sobre o final dessa terceira temporada de stranger things:
-*f*</t>
-  </si>
-  <si>
-    <t>stranger things e brigadeiro eu amo 😍</t>
-  </si>
-  <si>
-    <t>ontem finalmente comecei a ver a terceira temporada de stranger things. melhor do que eu esperava. é tipo uma fórmu… https://t.co/xnz5uzoohd</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. acho que smallville
-2. got e friends 
-3. got e friends kkkkkkkk
-4. teen wolf, riverdale 
-5. fl… https://t.co/yx9pkjrclf</t>
-  </si>
-  <si>
-    <t>smp que tá passando it eu quero assistir, amo essas crianças unidas...lembra mt stranger things</t>
-  </si>
-  <si>
-    <t>idade: 22
-altura: 1,75
-tamanho do pé: 44
-estado: sp
-série favorita: stranger things 
-música favorita: duzz - condor… https://t.co/fnxijad1o5</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. n faço ideia
-2. sherlock
-3. grey's, sherlock, ondaat...
-4. riverdale
-5. stranger things
-6. fri… https://t.co/opxbmbhmkq</t>
-  </si>
-  <si>
-    <t>@fairylwtt @stranger_things agora mesmo que eu vou</t>
-  </si>
-  <si>
-    <t>@euserbrunota de stranger things? serio ?? mas qm??? oxi.. aquele irmao chato d+?
-diagnostico: gostoso  !!</t>
-  </si>
-  <si>
-    <t>@netflixbrasil só acertou em 2 coisas na vida : stranger things e lúcifer ta de parabéns</t>
-  </si>
-  <si>
-    <t>tô indo pro último episódio de stranger things i can't believe i did that</t>
-  </si>
-  <si>
-    <t>será que o “it - capítulo 2” dá medo?
-pq o primeiro parecia a galerinha de stranger things numa super aventura da sessão da tarde.</t>
-  </si>
-  <si>
-    <t>so yasmin pra fwzer eu ficar acordada até agora vend stranger things segunda temp</t>
-  </si>
-  <si>
-    <t>acho que vou assistir stranger things dnv kkkk</t>
-  </si>
-  <si>
-    <t>não, amigo, é stranger things que referencia it https://t.co/qrhjbvgyue</t>
-  </si>
-  <si>
-    <t>eu tenho médico logo cedo e to aqui viciadah em stranger things, acabei me rendendo a essa série 🥰</t>
-  </si>
-  <si>
-    <t>a voz do mike da dublagem de stranger things https://t.co/o3lixromdn</t>
-  </si>
-  <si>
-    <t>rt @lenao_sd: vcs namorariam cmg? 
-altura: 1,66
-séries favoritas: game of thrones, vikings, stranger things...
-filmes fav: piratas do cari…</t>
-  </si>
-  <si>
-    <t>to quase acabando stranger things</t>
-  </si>
-  <si>
-    <t>no momento só queria uma 4 temporada de stranger things</t>
-  </si>
-  <si>
-    <t>rt @reasonsillie: eu depois de assistir o último episódio da s3 de stranger things  https://t.co/qyx7m1ghuq</t>
-  </si>
-  <si>
-    <t>meu dia foi tão chato que vou chamar de stranger things</t>
-  </si>
-  <si>
-    <t>@caioandrade_f duvido eu criar coragem, no começo eu tinha medo até de stranger things kkkk</t>
-  </si>
-  <si>
-    <t>rt @elxloser: boa tarde strangers, vamos votar nas categorias que finn, millie e stranger things foram indicados no people's choice awards!…</t>
-  </si>
-  <si>
-    <t>@carolcosmo1 sim sim, verdade. não gosto de quase nenhuma. só gostei de mindhunter e stranger things, eu acho. 😂😂</t>
-  </si>
-  <si>
-    <t>chorei com o final de stranger things vei</t>
-  </si>
-  <si>
-    <t>atribuí nota 9.5 ao episódio 3x8 - chapter eight: the battle of starcourt de stranger things https://t.co/wcmcp3llde #bancodeseries</t>
-  </si>
-  <si>
-    <t>juro que passei a terceira temporada de stranger things inteira me perguntando o que houve com a mae de mike e nanc… https://t.co/xrjo6drgwz</t>
-  </si>
-  <si>
-    <t>não vou mais usar minha blusa de stranger things pra ela não estragar e eu poder usar na ccxp</t>
-  </si>
-  <si>
-    <t>rt @spidermilesz: hoje no meu curso meu professor colocou o último episódio de stranger things para a gente assistir :') https://t.co/brnaf…</t>
-  </si>
-  <si>
-    <t>rt @harringrovex: adoraria que billy tivesse um arco de redenção melhor, onde ele trabalhasse seus problemas psicológicos, se tornando uma…</t>
-  </si>
-  <si>
-    <t>idade: 14
-altura: 1,58
-tamanho do pé: 37
-estado: df 
-série favorita: stranger things e good girls 
-música favorita:… https://t.co/jolbxknnjc</t>
-  </si>
-  <si>
-    <t>eu amo ler críticas burras dá pra ver pérolas do tipo "it pega referencias de stranger things" sim stephen king via… https://t.co/oivbx982ht</t>
-  </si>
-  <si>
-    <t>informações muito inúteis sobre mim
-idade: 16 anos
-altura:1,63
-tamanho do pé: 37
-signo: leão 
-tatuagem: 0
-piercing… https://t.co/sw6mteyb8m</t>
-  </si>
-  <si>
-    <t>me recusava a assistir stranger things, agora to começando a 2 temporada e assisti a 1 em um dia só. alguém me socorre!</t>
-  </si>
-  <si>
-    <t>rt @juliagavillan: a herança de stranger things é uma geração inteira achando que a série é inspiração para alguma coisa e não inspirada em…</t>
-  </si>
-  <si>
-    <t>de onde as pessoas conhecem dacre montgomery: stranger things
-de onde eu conheço dacre montgomery: power rangers
-esse é o tweet.</t>
-  </si>
-  <si>
-    <t>o auge do garoto que começa a assistir uma série, não termina e agora resolveu voltar kk, dessa vez eu termino stranger things</t>
-  </si>
-  <si>
-    <t>stranger things como posso te agradecer? https://t.co/kxduxz9a0n</t>
+    <t>mano sério eu abri a porta lá de trás e dei de cara com o céu desse jeito achei que tava tendo um pesadelo no universo de stranger things</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -1271,10 +1246,230 @@
 5. la casa de papel
 6. himym
 7. stranger things 
-8. stra… https://t.co/b9htmbg7nm</t>
-  </si>
-  <si>
-    <t>acho que vou baixar stranger things no meu notebook porque sempre quero assistir de novo</t>
+8. stranger things
+9. andi mack
+10. bia🥰
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>stranger things e brigadeiro eu amo 😍</t>
+  </si>
+  <si>
+    <t>ás vezes acho que stranger things é real e que todos os monstros são as inseguranças e as pessoas com que tenho que lidar...</t>
+  </si>
+  <si>
+    <t>só queria uma mimosa p assistir stranger things comigo</t>
+  </si>
+  <si>
+    <t>lembrei q terminei stranger things https://t.co/mjpleptkn0</t>
+  </si>
+  <si>
+    <t>smp que tá passando it eu quero assistir, amo essas crianças unidas...lembra mt stranger things</t>
+  </si>
+  <si>
+    <t>assistindo stranger things de novo, só pra minha mãe ver também!</t>
+  </si>
+  <si>
+    <t>rt @obsnaturalistas: vocês falam tanto de 'demogorgon' nos comentários que eu tive de procurar o que é. nem sabia que era do stranger thing…</t>
+  </si>
+  <si>
+    <t>caralho stranger things que bicho nojento q vcs fizeram</t>
+  </si>
+  <si>
+    <t>stranger things | cena inédita da 2ª temporada é revelada em jogo de celular.
+confira: https://t.co/uh6keopese</t>
+  </si>
+  <si>
+    <t>alguém indica uma série boa ae, sem ser stranger things e sintonia..</t>
+  </si>
+  <si>
+    <t>a pior crítica de it 2 q li até agira foi a da @folha , eles simplesmente falam q eles tiveram influência de stranger things. beloved!? strange things que tem inúmeras referências as obras de @stephenking 😐</t>
+  </si>
+  <si>
+    <t>eu só ia lembrar dele de salva vidas em stranger things, e eu querendo me afogar nql piscina kkk https://t.co/mxtvhcqkgu</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. pretty little liars
+2. greys anatomy
+3. inteira, nenhuma
+4. não sei
+5. once upon a time
+6. friends e brooklyn nine nine
+7. várias, mas greys principalmente
+8. stranger things
+9. riverdale
+10. lucifer
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>assistindo essa dlc de stranger things no dead by daylight e me deu uma vontade de jogar isso</t>
+  </si>
+  <si>
+    <t>acho que vou ver stranger things de novo</t>
+  </si>
+  <si>
+    <t>garotas mt atrasadas que só acabaram agora a última temporada de stranger things e choraram litros com o episódio final</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. os guerreiros wassabi
+2. stranger things
+3. stranger things
+4. scream
+5. la casa de papel
+6. friends
+7. greys anatomy
+8. greys anatomy
+9. la casa de papel
+10. stranger things
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>ja sei caralho, é o irmão da max do stranger things ahahah 
+sem o cabelo dele na serie n o reconhecia</t>
+  </si>
+  <si>
+    <t>acabei de descobrir que stranger things supostamente não irá ter mais do que 5 temporadas 😖</t>
+  </si>
+  <si>
+    <t>rt @vini___01: desenho do steve do stranger things 3° sesson
+ versão zumbi  :b #strangerthings3 https://t.co/rwaspyriew</t>
+  </si>
+  <si>
+    <t>hey, sejam bem vindos ao meu seu nosso perfil no tt, publicação mais que legais só aqui mesmo!
+obs: alerta de muitas coisas de stranger things.❤️🌻✨</t>
+  </si>
+  <si>
+    <t>em qual ep q a gente começa a entender stranger things, pq tô no quinto e até agr n entendi nd</t>
+  </si>
+  <si>
+    <t>que final foi esse de stranger things! tá malucooooooo</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. icarly kkkk
+2. how i met your mother
+3. nenhuma, não tenho paciência
+4. riverdale
+5. pretty little liars
+6. how i met your mother
+7. stranger things
+8. stranger things
+9. num sei
+10. bates motel
+comenta um emoji e mando as perguntas</t>
+  </si>
+  <si>
+    <t>só vou no 3° episódio e já tou viciado em stranger things</t>
+  </si>
+  <si>
+    <t>eu quando acabei stranger things 3 https://t.co/08332fzesj</t>
+  </si>
+  <si>
+    <t>ontem finalmente comecei a ver a terceira temporada de stranger things. melhor do que eu esperava. é tipo uma fórmula batida que ainda assim funciona muito bem comigo, é meu guilty pleasure total.</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “quando encontramos o perigo, nossos corações batem mais forte.” 
+— stranger things</t>
+  </si>
+  <si>
+    <t>@blairwdrf9 @stranger_things kkkkkkkkk queria</t>
+  </si>
+  <si>
+    <t>@ai_ai176 @naomiaguento nao da medo!!!! parece stranger things serio</t>
+  </si>
+  <si>
+    <t>rt @juliagavillan: a herança de stranger things é uma geração inteira achando que a série é inspiração para alguma coisa e não inspirada em…</t>
+  </si>
+  <si>
+    <t>acordei 5h com um barulho de energia elétrica sla, muito stranger things sim, mas aparentemente foi só o transformador da rua q pegou fogo rs</t>
+  </si>
+  <si>
+    <t>vcs namorariam cmg? 
+altura: 1,66
+séries favoritas: game of thrones, vikings, stranger things...
+filmes fav: piratas do caribe, a múmia, vingadores e afins
+hobby: jogar rpg e xadrez
+descrição: engraçado, chato, debochado e sonolento 
+cor favorita: verde https://t.co/lmcxqpfzbe</t>
+  </si>
+  <si>
+    <t>@camillaroquee o maior crush de stranger things kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>vendo o ptb de stranger things 🤤</t>
+  </si>
+  <si>
+    <t>o auge do garoto que começa a assistir uma série, não termina e agora resolveu voltar kk, dessa vez eu termino stranger things</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. n faço ideia
+2. sherlock
+3. grey's, sherlock, ondaat...
+4. riverdale
+5. stranger things
+6. friends
+7. ondaat e grey's
+8. sherlock
+9. stranger things
+10. sherlock
+comenta um emoji e mando as perguntas!</t>
+  </si>
+  <si>
+    <t>já pode entrar pro cast de stranger things https://t.co/9aed6o9o22</t>
+  </si>
+  <si>
+    <t>pessoas que vêem meus rtts, me desculpem por eu dar rt em tudo de stranger things e aparecer tudo na sua tml</t>
+  </si>
+  <si>
+    <t>o michelzinho alegrou meu dia assoviando a musiquinha de stranger things</t>
+  </si>
+  <si>
+    <t>vocês já votaram em stranger things hoje? e na millie? e no finn? https://t.co/palcinkjoh</t>
+  </si>
+  <si>
+    <t>hoje o debate do tênis voltou e tiveram o displante de me falar que o nike x stranger things cortez não vale 500 reais
+sendo que é de uma edição especial
+vsf povo bobo https://t.co/bfwpxvyvw2</t>
+  </si>
+  <si>
+    <t>no momento só queria uma 4 temporada de stranger things</t>
+  </si>
+  <si>
+    <t>@smayhoan é de stranger things, mo</t>
+  </si>
+  <si>
+    <t>nunca chorei tanto c filme série e pá 
+igual chorei c o final de stranger things</t>
+  </si>
+  <si>
+    <t>idade: 20
+altura: 1,63
+tamanho do pé: 37/38
+estado: rj 
+série favorita: stranger things, got, teen wolf
+música favorita: whalien 52 
+comida favorita: hamburguer  
+descrição sobre você: lixo ambulante 
+data de aniversário: 30/08 https://t.co/kiyhp8x7gn</t>
+  </si>
+  <si>
+    <t>eu tenho orgulho de dizer q eu sou fã de stranger things desde a primeira temp 
+modinhas q chorem</t>
+  </si>
+  <si>
+    <t>rt @moonlarys: pareceu mais uma mistura de terror com stranger things</t>
+  </si>
+  <si>
+    <t>obrigada stranger things por me fazer chorar e ficar com dor de cabeça</t>
+  </si>
+  <si>
+    <t>fora os doramas, quais séries são suas favoritas? — the oc, one three hill, greys, heartland, gilmore girls, stranger things, friends e etc https://t.co/hgk9c28x42</t>
+  </si>
+  <si>
+    <t>me recusava a assistir stranger things, agora to começando a 2 temporada e assisti a 1 em um dia só. alguém me socorre!</t>
   </si>
 </sst>
 </file>
@@ -1690,222 +1885,222 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -1915,12 +2110,12 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -1930,442 +2125,442 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -2375,497 +2570,497 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -2890,207 +3085,207 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="292" spans="1:1">
@@ -3105,42 +3300,42 @@
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3158,647 +3353,647 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -3808,17 +4003,17 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -3828,337 +4023,337 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>274</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/stranger things.xlsx
+++ b/stranger things.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseantonio/Documents/GitHub/Projeto-2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840D7322-9B9A-624F-A827-4283B0CB30E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="303">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1471,12 +1477,24 @@
   <si>
     <t>me recusava a assistir stranger things, agora to começando a 2 temporada e assisti a 1 em um dia só. alguém me socorre!</t>
   </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
+    <t>irrelevante</t>
+  </si>
+  <si>
+    <t>relevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,11 +1557,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1585,7 +1611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1617,9 +1643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,6 +1695,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1826,1514 +1888,1538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="229.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>195</v>
       </c>
@@ -3344,1014 +3430,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="212" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>298</v>
       </c>

--- a/stranger things.xlsx
+++ b/stranger things.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2996\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\Insper\2 SEMESTRE INSPER\Ciencia dos dados\Projeto-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631F322F-B5A6-4F87-BF2D-031F62362E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23963B-A531-4184-B8D2-74E114B39D36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1970,9 +1970,6 @@
 data de aniversário: 20/02 https://t.co/mmic7kkt5t</t>
   </si>
   <si>
-    <t>manooooo, 3 temporada de stranger things foi muitoooooooo fodaaaaaaaaa</t>
-  </si>
-  <si>
     <t>• sobre séries •
 1. sense8
 2. stranger things e oitnb
@@ -2101,9 +2098,6 @@
 comida favorita : frango a passarinho https://t.co/utqcia9kfe</t>
   </si>
   <si>
-    <t>eu podendo escolher entre ver a nova temporada de queer eye, de stranger things... resolvo assistir 13 reasons 🤦🏻‍♀️</t>
-  </si>
-  <si>
     <t>vocês também choraram no último episódio de stranger things ou eu estou muito sentimental?</t>
   </si>
   <si>
@@ -2155,12 +2149,18 @@
   <si>
     <t>pensando em assistir stranger things só pra ver esse tal de dacre montgomery</t>
   </si>
+  <si>
+    <t>manooooo, 3 temporada de stranger things foi muitoooooooo foda</t>
+  </si>
+  <si>
+    <t>eu podendo escolher entre ver a nova temporada de queer eye, de stranger things... resolvo assistir 13 reasons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2566,17 +2566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B371" sqref="B371"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="168.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3029,12 +3029,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>74</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>75</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>55</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>92</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>94</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>95</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>55</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>104</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>105</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>106</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>109</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>110</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>111</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>55</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>121</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>122</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>105</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>87</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>123</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>124</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>125</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>126</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>128</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>129</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>130</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>131</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>55</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>133</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>134</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>135</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>136</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>137</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>139</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>140</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>141</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>142</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>143</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>144</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>145</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>146</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>148</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>149</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>150</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>151</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>152</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>115</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>154</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>155</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>156</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>157</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>100</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>158</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>159</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>160</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>161</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>162</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>163</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>164</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>165</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>167</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>168</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>169</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>170</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>171</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>172</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>173</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>174</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>175</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>176</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>105</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>177</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>178</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>179</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>180</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>181</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>182</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>183</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>184</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>185</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>186</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>105</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>187</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>188</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>189</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>190</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>191</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>192</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>193</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>194</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>55</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>195</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>196</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>100</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>197</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>198</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>103</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>199</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>201</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>202</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>203</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>204</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>205</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>105</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>206</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>207</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>208</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>209</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>210</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>169</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>211</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>212</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>213</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>28</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>214</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>216</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>169</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>217</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>87</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>218</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>219</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>220</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>221</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>23</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>192</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>222</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>55</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>223</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>224</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>225</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>226</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>227</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>228</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>229</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>230</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>231</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>232</v>
       </c>
@@ -5554,660 +5554,1052 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>233</v>
       </c>
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="1:2" ht="15">
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" ht="15">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" ht="15">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" ht="15">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" ht="15">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" ht="15">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" ht="15">
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" ht="15">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" ht="15">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" ht="15">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" ht="15">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" ht="15">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" ht="15">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="15">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" ht="15">
+      <c r="B385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" ht="15">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" ht="15">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" ht="15">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" ht="15">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" ht="15">
+      <c r="B390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" ht="15">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" ht="15">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" ht="15">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" ht="15">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" ht="15">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" ht="15">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" ht="15">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" ht="15">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" ht="15">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" ht="15">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" ht="15">
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" ht="15">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" ht="15">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" ht="15">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" ht="15">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" ht="15">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" ht="15">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" ht="15">
+      <c r="B408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" ht="15">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" ht="15">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" ht="15">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" ht="15">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" ht="15">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" ht="15">
+      <c r="B414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" ht="15">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" ht="15">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" ht="15">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" ht="15">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" ht="15">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" ht="15">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" ht="15">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" ht="15">
+      <c r="B422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" ht="15">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" ht="15">
+      <c r="B424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" ht="15">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" ht="15">
+      <c r="B426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" ht="15">
+      <c r="B427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" ht="15">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" ht="15">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" ht="15">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" ht="15">
+      <c r="B431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" ht="15">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" ht="15">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" ht="15">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" ht="15">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" ht="15">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" ht="15">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" ht="15">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" ht="15">
+      <c r="B439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" ht="15">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" ht="15">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" ht="15">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" ht="15">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" ht="15">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" ht="15">
+      <c r="B445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" ht="15">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" ht="15">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" ht="15">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" ht="15">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" ht="15">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" ht="15">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" ht="15">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" ht="15">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" ht="15">
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" ht="15">
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" ht="15">
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" ht="15">
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" ht="15">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" ht="15">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" ht="15">
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" ht="15">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" ht="15">
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" ht="15">
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" ht="15">
+      <c r="B464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" ht="15">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" ht="15">
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" ht="15">
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" ht="15">
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" ht="15">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" ht="15">
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" ht="15">
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" ht="15">
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" ht="15">
+      <c r="B473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" ht="15">
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" ht="15">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" ht="15">
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" ht="15">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" ht="15">
+      <c r="B478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" ht="15">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" ht="15">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" ht="15">
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" ht="15">
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" ht="15">
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" ht="15">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" ht="15">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" ht="15">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" ht="15">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" ht="15">
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" ht="15">
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" ht="15">
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" ht="15">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" ht="15">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" ht="15">
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" ht="15">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" ht="15">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" ht="15">
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" ht="15">
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" ht="15">
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" ht="15">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" ht="15">
+      <c r="B500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>15</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6219,19 +6611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="162.28515625" customWidth="1"/>
+    <col min="1" max="1" width="162.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>300</v>
       </c>
@@ -6239,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -6247,7 +6641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>301</v>
       </c>
@@ -6255,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -6263,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -6271,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>304</v>
       </c>
@@ -6279,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6287,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>305</v>
       </c>
@@ -6295,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6303,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6311,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -6319,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -6327,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -6335,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6343,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -6351,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -6359,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -6367,12 +6761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -6380,7 +6774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -6388,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -6396,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>314</v>
       </c>
@@ -6404,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -6412,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -6420,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -6428,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -6436,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -6444,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -6452,7 +6846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -6460,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6468,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -6476,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>318</v>
       </c>
@@ -6492,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -6508,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>319</v>
       </c>
@@ -6516,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>320</v>
       </c>
@@ -6524,7 +6918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -6532,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>322</v>
       </c>
@@ -6540,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -6548,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -6556,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -6564,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>323</v>
       </c>
@@ -6572,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -6580,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -6588,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>324</v>
       </c>
@@ -6596,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -6604,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -6612,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -6620,7 +7014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>326</v>
       </c>
@@ -6628,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>327</v>
       </c>
@@ -6636,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6644,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -6652,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>329</v>
       </c>
@@ -6660,7 +7054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -6668,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -6676,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>330</v>
       </c>
@@ -6684,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -6692,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>331</v>
       </c>
@@ -6700,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6708,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>332</v>
       </c>
@@ -6716,7 +7110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>333</v>
       </c>
@@ -6724,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -6732,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>262</v>
       </c>
@@ -6740,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -6748,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -6756,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>334</v>
       </c>
@@ -6764,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -6772,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -6780,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>335</v>
       </c>
@@ -6788,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -6796,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -6804,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>336</v>
       </c>
@@ -6812,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>337</v>
       </c>
@@ -6820,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>249</v>
       </c>
@@ -6828,7 +7222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -6836,7 +7230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -6844,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>228</v>
       </c>
@@ -6852,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>338</v>
       </c>
@@ -6860,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -6868,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>340</v>
       </c>
@@ -6876,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>341</v>
       </c>
@@ -6884,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6900,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -6908,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -6916,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>343</v>
       </c>
@@ -6924,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -6932,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>345</v>
       </c>
@@ -6940,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -6948,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>346</v>
       </c>
@@ -6956,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>347</v>
       </c>
@@ -6964,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>348</v>
       </c>
@@ -6972,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -6980,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>349</v>
       </c>
@@ -6988,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -6996,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -7004,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -7012,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -7020,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -7028,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -7036,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>351</v>
       </c>
@@ -7044,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>352</v>
       </c>
@@ -7052,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -7060,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>353</v>
       </c>
@@ -7068,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>354</v>
       </c>
@@ -7076,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -7084,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>355</v>
       </c>
@@ -7092,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>356</v>
       </c>
@@ -7100,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>357</v>
       </c>
@@ -7108,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>358</v>
       </c>
@@ -7116,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>359</v>
       </c>
@@ -7124,7 +7518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -7132,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>360</v>
       </c>
@@ -7140,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -7148,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>361</v>
       </c>
@@ -7156,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -7164,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -7172,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7180,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -7188,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -7196,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>365</v>
       </c>
@@ -7204,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>366</v>
       </c>
@@ -7212,7 +7606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -7220,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -7228,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -7236,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -7244,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>368</v>
       </c>
@@ -7252,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -7260,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>369</v>
       </c>
@@ -7268,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>198</v>
       </c>
@@ -7276,7 +7670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>370</v>
       </c>
@@ -7284,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>371</v>
       </c>
@@ -7292,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -7300,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>372</v>
       </c>
@@ -7308,7 +7702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>373</v>
       </c>
@@ -7316,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -7324,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>374</v>
       </c>
@@ -7332,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -7340,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>47</v>
       </c>
@@ -7348,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -7356,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>375</v>
       </c>
@@ -7364,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -7372,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -7380,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -7388,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -7396,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -7404,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>376</v>
       </c>
@@ -7412,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -7420,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>377</v>
       </c>
@@ -7428,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -7436,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>378</v>
       </c>
@@ -7444,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -7452,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -7460,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>380</v>
       </c>
@@ -7468,479 +7862,764 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="15">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="15">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="15">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="15">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="15">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="15">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="15">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="15">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="15">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="15">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="15">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="15">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="15">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="15">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="15">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="15">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="15">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="15">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="15">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="15">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="15">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="15">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="15">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="15">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>433</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="15">
-      <c r="A183" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="15">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="15">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="15">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>396</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15">
-      <c r="A188" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="15">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="15">
-      <c r="A190" t="s">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="15">
-      <c r="A191" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="15">
-      <c r="A192" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="15">
-      <c r="A193" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="15">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="15">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="15">
-      <c r="A196" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="15">
-      <c r="A197" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="15">
-      <c r="A198" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="15">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="15">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>407</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="15">
-      <c r="A201" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="15">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="15">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="15">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="15">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15">
+        <v>409</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="15">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="15">
+        <v>410</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="15">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="15">
-      <c r="A210" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="15">
-      <c r="A211" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="15">
-      <c r="A212" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="15">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="15">
-      <c r="A214" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="15">
-      <c r="A215" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="15">
-      <c r="A216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="15">
-      <c r="A217" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="15">
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="15">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="15">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>418</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="15">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="15">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="15">
-      <c r="A223" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="15">
-      <c r="A224" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="15">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="15">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="15">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="15">
+        <v>422</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="15">
+        <v>434</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="15">
+        <v>423</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="15">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="15">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="15">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="15">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="15">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="15">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="15">
+        <v>424</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="15">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="15">
+        <v>425</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="15">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" ht="15">
+        <v>426</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="15">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="15">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>427</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>428</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="15">
-      <c r="A245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" ht="15">
-      <c r="A246" t="s">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="15">
-      <c r="A247" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="15">
-      <c r="A248" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="15">
-      <c r="A249" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" ht="15">
-      <c r="A250" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="15">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>24</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7955,15 +8634,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051D982E912A754494678B8ABAB663C4" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1fbf94b38057d61dcba8d547b9e5136">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8cc57dda-952e-49e8-b456-6ad246116404" xmlns:ns4="a2591933-53ea-4cab-8f6c-7f247c1ec347" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27faeee9b937cdfd67f030509366c9e2" ns3:_="" ns4:_="">
     <xsd:import namespace="8cc57dda-952e-49e8-b456-6ad246116404"/>
@@ -8134,14 +8804,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39ABAB02-B40D-447A-B726-B05B62A20672}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39ABAB02-B40D-447A-B726-B05B62A20672}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6404FAE3-0719-4BA9-A4A5-7E89F62A3FB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B747A05D-A9A4-4D80-ADA7-27184204D10D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8cc57dda-952e-49e8-b456-6ad246116404"/>
+    <ds:schemaRef ds:uri="a2591933-53ea-4cab-8f6c-7f247c1ec347"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B747A05D-A9A4-4D80-ADA7-27184204D10D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6404FAE3-0719-4BA9-A4A5-7E89F62A3FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>